--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9778453753593241</v>
+        <v>0.9778453753593236</v>
       </c>
       <c r="D2">
-        <v>0.9979485483509848</v>
+        <v>0.9979485483509839</v>
       </c>
       <c r="E2">
-        <v>0.9861295744937498</v>
+        <v>0.9861295744937494</v>
       </c>
       <c r="F2">
-        <v>0.9745123083917688</v>
+        <v>0.9745123083917683</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.00070954055121</v>
       </c>
       <c r="K2">
-        <v>1.009436537334673</v>
+        <v>1.009436537334672</v>
       </c>
       <c r="L2">
-        <v>0.997785589426656</v>
+        <v>0.9977855894266555</v>
       </c>
       <c r="M2">
-        <v>0.9863385304132348</v>
+        <v>0.9863385304132344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906692406515902</v>
+        <v>0.9906692406515909</v>
       </c>
       <c r="D3">
         <v>1.007915848661174</v>
       </c>
       <c r="E3">
-        <v>0.9986203816083962</v>
+        <v>0.9986203816083972</v>
       </c>
       <c r="F3">
-        <v>0.9888192745207764</v>
+        <v>0.9888192745207773</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038903916831251</v>
+        <v>1.038903916831252</v>
       </c>
       <c r="J3">
         <v>1.01141754445765</v>
       </c>
       <c r="K3">
-        <v>1.018448436817042</v>
+        <v>1.018448436817043</v>
       </c>
       <c r="L3">
-        <v>1.009270945398369</v>
+        <v>1.00927094539837</v>
       </c>
       <c r="M3">
-        <v>0.9995972423971524</v>
+        <v>0.9995972423971532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9985171062774485</v>
+        <v>0.9985171062774497</v>
       </c>
       <c r="D4">
-        <v>1.014012961885904</v>
+        <v>1.014012961885905</v>
       </c>
       <c r="E4">
-        <v>1.006270043040312</v>
+        <v>1.006270043040314</v>
       </c>
       <c r="F4">
-        <v>0.9975835293980813</v>
+        <v>0.9975835293980829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041952632796008</v>
+        <v>1.041952632796009</v>
       </c>
       <c r="J4">
-        <v>1.01795882084288</v>
+        <v>1.017958820842881</v>
       </c>
       <c r="K4">
-        <v>1.023945154241415</v>
+        <v>1.023945154241417</v>
       </c>
       <c r="L4">
-        <v>1.016293378636217</v>
+        <v>1.016293378636218</v>
       </c>
       <c r="M4">
-        <v>1.007711206852091</v>
+        <v>1.007711206852092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00171945343621</v>
+        <v>1.001719453436209</v>
       </c>
       <c r="D5">
-        <v>1.016500040758433</v>
+        <v>1.016500040758432</v>
       </c>
       <c r="E5">
-        <v>1.009392757701196</v>
+        <v>1.009392757701194</v>
       </c>
       <c r="F5">
-        <v>1.001162052979524</v>
+        <v>1.001162052979522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043191159630592</v>
+        <v>1.043191159630593</v>
       </c>
       <c r="J5">
-        <v>1.020625133917477</v>
+        <v>1.020625133917476</v>
       </c>
       <c r="K5">
-        <v>1.026183609358544</v>
+        <v>1.026183609358543</v>
       </c>
       <c r="L5">
-        <v>1.019157336286241</v>
+        <v>1.019157336286239</v>
       </c>
       <c r="M5">
-        <v>1.011022224581636</v>
+        <v>1.011022224581634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002251741326408</v>
+        <v>1.00225174132641</v>
       </c>
       <c r="D6">
-        <v>1.016913380654244</v>
+        <v>1.016913380654245</v>
       </c>
       <c r="E6">
-        <v>1.009911879847807</v>
+        <v>1.009911879847809</v>
       </c>
       <c r="F6">
-        <v>1.001757003633185</v>
+        <v>1.001757003633186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043396698636066</v>
+        <v>1.043396698636067</v>
       </c>
       <c r="J6">
-        <v>1.021068152343493</v>
+        <v>1.021068152343495</v>
       </c>
       <c r="K6">
-        <v>1.026555413451374</v>
+        <v>1.026555413451376</v>
       </c>
       <c r="L6">
-        <v>1.019633283818346</v>
+        <v>1.019633283818348</v>
       </c>
       <c r="M6">
-        <v>1.011572583039652</v>
+        <v>1.011572583039654</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985602639497279</v>
+        <v>0.9985602639497313</v>
       </c>
       <c r="D7">
-        <v>1.014046483716002</v>
+        <v>1.014046483716005</v>
       </c>
       <c r="E7">
-        <v>1.006312122686333</v>
+        <v>1.006312122686336</v>
       </c>
       <c r="F7">
-        <v>0.9976317476817008</v>
+        <v>0.9976317476817043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041969346296688</v>
+        <v>1.04196934629669</v>
       </c>
       <c r="J7">
-        <v>1.017994765956952</v>
+        <v>1.017994765956955</v>
       </c>
       <c r="K7">
-        <v>1.023975339665418</v>
+        <v>1.023975339665421</v>
       </c>
       <c r="L7">
-        <v>1.01633198218289</v>
+        <v>1.016331982182893</v>
       </c>
       <c r="M7">
-        <v>1.007755828605047</v>
+        <v>1.00775582860505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9822795947462813</v>
+        <v>0.9822795947462835</v>
       </c>
       <c r="D8">
-        <v>1.001395424716484</v>
+        <v>1.001395424716486</v>
       </c>
       <c r="E8">
-        <v>0.9904473529820466</v>
+        <v>0.9904473529820492</v>
       </c>
       <c r="F8">
-        <v>0.9794575633009318</v>
+        <v>0.9794575633009343</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035625318281227</v>
       </c>
       <c r="J8">
-        <v>1.004414620570501</v>
+        <v>1.004414620570503</v>
       </c>
       <c r="K8">
-        <v>1.012556527207769</v>
+        <v>1.012556527207771</v>
       </c>
       <c r="L8">
-        <v>1.001758294862087</v>
+        <v>1.00175829486209</v>
       </c>
       <c r="M8">
-        <v>0.9909231774902389</v>
+        <v>0.9909231774902412</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9495278865251283</v>
+        <v>0.9495278865251298</v>
       </c>
       <c r="D9">
-        <v>0.975937841079032</v>
+        <v>0.9759378410790333</v>
       </c>
       <c r="E9">
-        <v>0.9585870535062304</v>
+        <v>0.958587053506232</v>
       </c>
       <c r="F9">
-        <v>0.9429633423782213</v>
+        <v>0.9429633423782228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022672038314185</v>
+        <v>1.022672038314186</v>
       </c>
       <c r="J9">
-        <v>0.9769980988806172</v>
+        <v>0.9769980988806184</v>
       </c>
       <c r="K9">
-        <v>0.9894337590564205</v>
+        <v>0.9894337590564215</v>
       </c>
       <c r="L9">
-        <v>0.9723897717478378</v>
+        <v>0.9723897717478395</v>
       </c>
       <c r="M9">
-        <v>0.9570549480545333</v>
+        <v>0.9570549480545347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9237931720132497</v>
+        <v>0.9237931720132498</v>
       </c>
       <c r="D10">
-        <v>0.9559581567850144</v>
+        <v>0.9559581567850147</v>
       </c>
       <c r="E10">
-        <v>0.9336033544219615</v>
+        <v>0.9336033544219621</v>
       </c>
       <c r="F10">
-        <v>0.9143161803861835</v>
+        <v>0.9143161803861841</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.012367802820762</v>
       </c>
       <c r="J10">
-        <v>0.9553943869448543</v>
+        <v>0.9553943869448546</v>
       </c>
       <c r="K10">
-        <v>0.9711708919175951</v>
+        <v>0.971170891917595</v>
       </c>
       <c r="L10">
-        <v>0.9492846572565575</v>
+        <v>0.9492846572565582</v>
       </c>
       <c r="M10">
-        <v>0.9304263566711209</v>
+        <v>0.9304263566711216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9113202727539599</v>
+        <v>0.9113202727539621</v>
       </c>
       <c r="D11">
-        <v>0.9462900163210454</v>
+        <v>0.9462900163210467</v>
       </c>
       <c r="E11">
-        <v>0.9215105679507936</v>
+        <v>0.921510567950796</v>
       </c>
       <c r="F11">
-        <v>0.9004315171687198</v>
+        <v>0.9004315171687223</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00734616278827</v>
+        <v>1.007346162788271</v>
       </c>
       <c r="J11">
-        <v>0.9449116351282335</v>
+        <v>0.9449116351282354</v>
       </c>
       <c r="K11">
-        <v>0.9623012506401855</v>
+        <v>0.9623012506401865</v>
       </c>
       <c r="L11">
-        <v>0.9380817459328232</v>
+        <v>0.9380817459328256</v>
       </c>
       <c r="M11">
-        <v>0.9175117636677138</v>
+        <v>0.9175117636677159</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.906435291581721</v>
+        <v>0.9064352915817216</v>
       </c>
       <c r="D12">
-        <v>0.9425070458986375</v>
+        <v>0.942507045898638</v>
       </c>
       <c r="E12">
-        <v>0.9167773588366476</v>
+        <v>0.9167773588366479</v>
       </c>
       <c r="F12">
-        <v>0.8949926586494077</v>
+        <v>0.8949926586494084</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.005375682590114</v>
       </c>
       <c r="J12">
-        <v>0.9408046246576763</v>
+        <v>0.9408046246576769</v>
       </c>
       <c r="K12">
-        <v>0.9588253275827524</v>
+        <v>0.958825327582753</v>
       </c>
       <c r="L12">
-        <v>0.9336937773559273</v>
+        <v>0.9336937773559277</v>
       </c>
       <c r="M12">
-        <v>0.9124519312644906</v>
+        <v>0.9124519312644915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074956197444282</v>
+        <v>0.9074956197444283</v>
       </c>
       <c r="D13">
-        <v>0.9433279902712245</v>
+        <v>0.9433279902712244</v>
       </c>
       <c r="E13">
         <v>0.917804603933722</v>
       </c>
       <c r="F13">
-        <v>0.896173273486331</v>
+        <v>0.8961732734863314</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.005803554339715</v>
       </c>
       <c r="J13">
-        <v>0.9416961461914812</v>
+        <v>0.9416961461914811</v>
       </c>
       <c r="K13">
-        <v>0.9595798919392228</v>
+        <v>0.9595798919392226</v>
       </c>
       <c r="L13">
-        <v>0.9346462353172615</v>
+        <v>0.9346462353172617</v>
       </c>
       <c r="M13">
-        <v>0.9135503082352862</v>
+        <v>0.9135503082352864</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9109219994385586</v>
+        <v>0.9109219994385637</v>
       </c>
       <c r="D14">
-        <v>0.9459815108910173</v>
+        <v>0.945981510891022</v>
       </c>
       <c r="E14">
-        <v>0.9211246072032336</v>
+        <v>0.9211246072032389</v>
       </c>
       <c r="F14">
-        <v>0.8999881122380917</v>
+        <v>0.8999881122380974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007185582123086</v>
+        <v>1.007185582123088</v>
       </c>
       <c r="J14">
-        <v>0.9445768168125069</v>
+        <v>0.944576816812512</v>
       </c>
       <c r="K14">
-        <v>0.9620178970141253</v>
+        <v>0.9620178970141298</v>
       </c>
       <c r="L14">
-        <v>0.9377239995281983</v>
+        <v>0.9377239995282035</v>
       </c>
       <c r="M14">
-        <v>0.9170992762895783</v>
+        <v>0.9170992762895839</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9129977861726516</v>
+        <v>0.9129977861726495</v>
       </c>
       <c r="D15">
-        <v>0.9475895802177761</v>
+        <v>0.9475895802177743</v>
       </c>
       <c r="E15">
-        <v>0.9231363406778005</v>
+        <v>0.9231363406777982</v>
       </c>
       <c r="F15">
-        <v>0.9022990782870058</v>
+        <v>0.9022990782870037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008022374624533</v>
+        <v>1.008022374624531</v>
       </c>
       <c r="J15">
-        <v>0.9463218219498135</v>
+        <v>0.9463218219498114</v>
       </c>
       <c r="K15">
-        <v>0.9634946442086202</v>
+        <v>0.9634946442086184</v>
       </c>
       <c r="L15">
-        <v>0.9395885484429115</v>
+        <v>0.9395885484429092</v>
       </c>
       <c r="M15">
-        <v>0.9192490675239667</v>
+        <v>0.9192490675239645</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9245889405872673</v>
+        <v>0.9245889405872659</v>
       </c>
       <c r="D16">
-        <v>0.9565753821880075</v>
+        <v>0.9565753821880065</v>
       </c>
       <c r="E16">
-        <v>0.93437523106433</v>
+        <v>0.9343752310643285</v>
       </c>
       <c r="F16">
-        <v>0.9152019476475629</v>
+        <v>0.9152019476475619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012687657898721</v>
+        <v>1.01268765789872</v>
       </c>
       <c r="J16">
-        <v>0.9560629681288522</v>
+        <v>0.9560629681288509</v>
       </c>
       <c r="K16">
-        <v>0.9717364516368832</v>
+        <v>0.9717364516368823</v>
       </c>
       <c r="L16">
-        <v>0.9499993327201041</v>
+        <v>0.9499993327201027</v>
       </c>
       <c r="M16">
-        <v>0.9312500923877794</v>
+        <v>0.9312500923877786</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9314728580273448</v>
+        <v>0.9314728580273475</v>
       </c>
       <c r="D17">
-        <v>0.9619165589393023</v>
+        <v>0.9619165589393046</v>
       </c>
       <c r="E17">
-        <v>0.9410542560824524</v>
+        <v>0.9410542560824553</v>
       </c>
       <c r="F17">
-        <v>0.9228643247750405</v>
+        <v>0.9228643247750432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015451661008684</v>
+        <v>1.015451661008685</v>
       </c>
       <c r="J17">
-        <v>0.9618453519319871</v>
+        <v>0.9618453519319897</v>
       </c>
       <c r="K17">
-        <v>0.9766269881568423</v>
+        <v>0.9766269881568443</v>
       </c>
       <c r="L17">
-        <v>0.9561812766883885</v>
+        <v>0.956181276688391</v>
       </c>
       <c r="M17">
-        <v>0.938374982432944</v>
+        <v>0.9383749824329469</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9353641928440648</v>
+        <v>0.9353641928440652</v>
       </c>
       <c r="D18">
-        <v>0.964937115527459</v>
+        <v>0.9649371155274596</v>
       </c>
       <c r="E18">
-        <v>0.9448311842304061</v>
+        <v>0.9448311842304069</v>
       </c>
       <c r="F18">
-        <v>0.9271957616424946</v>
+        <v>0.9271957616424953</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.017011596579916</v>
       </c>
       <c r="J18">
-        <v>0.9651129043262207</v>
+        <v>0.9651129043262212</v>
       </c>
       <c r="K18">
-        <v>0.9793898312209312</v>
+        <v>0.9793898312209317</v>
       </c>
       <c r="L18">
-        <v>0.9596753726928927</v>
+        <v>0.9596753726928934</v>
       </c>
       <c r="M18">
-        <v>0.942401818150601</v>
+        <v>0.9424018181506018</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9366712906749101</v>
+        <v>0.9366712906749106</v>
       </c>
       <c r="D19">
-        <v>0.9659519118523767</v>
+        <v>0.9659519118523774</v>
       </c>
       <c r="E19">
-        <v>0.9461000816290185</v>
+        <v>0.9461000816290197</v>
       </c>
       <c r="F19">
-        <v>0.9286507197415972</v>
+        <v>0.9286507197415983</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017535146320281</v>
+        <v>1.017535146320282</v>
       </c>
       <c r="J19">
-        <v>0.9662102780462004</v>
+        <v>0.9662102780462012</v>
       </c>
       <c r="K19">
-        <v>0.9803175718095817</v>
+        <v>0.9803175718095825</v>
       </c>
       <c r="L19">
-        <v>0.960848958612987</v>
+        <v>0.9608489586129881</v>
       </c>
       <c r="M19">
-        <v>0.9437543225088652</v>
+        <v>0.9437543225088662</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.930747412105935</v>
+        <v>0.9307474121059349</v>
       </c>
       <c r="D20">
-        <v>0.9613535480602285</v>
+        <v>0.9613535480602283</v>
       </c>
       <c r="E20">
-        <v>0.9403502513958141</v>
+        <v>0.9403502513958142</v>
       </c>
       <c r="F20">
-        <v>0.922056842109392</v>
+        <v>0.9220568421093917</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015160642227616</v>
       </c>
       <c r="J20">
-        <v>0.9612361026967422</v>
+        <v>0.9612361026967419</v>
       </c>
       <c r="K20">
-        <v>0.9761117821970553</v>
+        <v>0.976111782197055</v>
       </c>
       <c r="L20">
-        <v>0.9555298496895361</v>
+        <v>0.955529849689536</v>
       </c>
       <c r="M20">
-        <v>0.9376242204161468</v>
+        <v>0.9376242204161467</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9099205009245667</v>
+        <v>0.9099205009245666</v>
       </c>
       <c r="D21">
-        <v>0.9452058039561765</v>
+        <v>0.9452058039561759</v>
       </c>
       <c r="E21">
-        <v>0.9201541180163568</v>
+        <v>0.9201541180163565</v>
       </c>
       <c r="F21">
-        <v>0.898873106472685</v>
+        <v>0.8988731064726849</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.006781727272501</v>
       </c>
       <c r="J21">
-        <v>0.9437348603657706</v>
+        <v>0.9437348603657701</v>
       </c>
       <c r="K21">
-        <v>0.9613053438010963</v>
+        <v>0.9613053438010958</v>
       </c>
       <c r="L21">
-        <v>0.9368244052753727</v>
+        <v>0.936824405275372</v>
       </c>
       <c r="M21">
-        <v>0.916062002954099</v>
+        <v>0.9160620029540987</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8953232082015889</v>
+        <v>0.8953232082015877</v>
       </c>
       <c r="D22">
-        <v>0.9339102000920293</v>
+        <v>0.9339102000920286</v>
       </c>
       <c r="E22">
-        <v>0.9060166683276555</v>
+        <v>0.9060166683276547</v>
       </c>
       <c r="F22">
-        <v>0.8826173511446179</v>
+        <v>0.882617351144617</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.00088682900031</v>
       </c>
       <c r="J22">
-        <v>0.931460005519958</v>
+        <v>0.9314600055199571</v>
       </c>
       <c r="K22">
-        <v>0.9509153489856071</v>
+        <v>0.9509153489856067</v>
       </c>
       <c r="L22">
-        <v>0.9237120244648513</v>
+        <v>0.9237120244648507</v>
       </c>
       <c r="M22">
-        <v>0.9009376797821455</v>
+        <v>0.9009376797821446</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032278234060988</v>
+        <v>0.9032278234060971</v>
       </c>
       <c r="D23">
-        <v>0.9400243472555583</v>
+        <v>0.9400243472555568</v>
       </c>
       <c r="E23">
-        <v>0.9136704389270758</v>
+        <v>0.913670438927074</v>
       </c>
       <c r="F23">
-        <v>0.8914210864593342</v>
+        <v>0.8914210864593325</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.004080864427045</v>
       </c>
       <c r="J23">
-        <v>0.9381076126963809</v>
+        <v>0.9381076126963792</v>
       </c>
       <c r="K23">
-        <v>0.9565425315270167</v>
+        <v>0.9565425315270155</v>
       </c>
       <c r="L23">
-        <v>0.9308125894048948</v>
+        <v>0.9308125894048931</v>
       </c>
       <c r="M23">
-        <v>0.9091290314292648</v>
+        <v>0.909129031429263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.931075589224016</v>
+        <v>0.9310755892240157</v>
       </c>
       <c r="D24">
         <v>0.9616082388461</v>
       </c>
       <c r="E24">
-        <v>0.9406687245344127</v>
+        <v>0.9406687245344122</v>
       </c>
       <c r="F24">
-        <v>0.922422130764214</v>
+        <v>0.9224221307642136</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.01529230110371</v>
       </c>
       <c r="J24">
-        <v>0.9615117182679729</v>
+        <v>0.9615117182679728</v>
       </c>
       <c r="K24">
-        <v>0.9763448562748154</v>
+        <v>0.9763448562748152</v>
       </c>
       <c r="L24">
-        <v>0.9558245434979642</v>
+        <v>0.9558245434979636</v>
       </c>
       <c r="M24">
-        <v>0.9379638522280673</v>
+        <v>0.9379638522280671</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9585771835757817</v>
+        <v>0.9585771835757844</v>
       </c>
       <c r="D25">
-        <v>0.9829702812196004</v>
+        <v>0.9829702812196026</v>
       </c>
       <c r="E25">
-        <v>0.9673828331674081</v>
+        <v>0.9673828331674111</v>
       </c>
       <c r="F25">
-        <v>0.9530405541896968</v>
+        <v>0.9530405541897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026272111492051</v>
+        <v>1.026272111492053</v>
       </c>
       <c r="J25">
-        <v>0.9845837874205927</v>
+        <v>0.9845837874205952</v>
       </c>
       <c r="K25">
-        <v>0.9958388424052511</v>
+        <v>0.9958388424052533</v>
       </c>
       <c r="L25">
-        <v>0.9805095115817855</v>
+        <v>0.9805095115817882</v>
       </c>
       <c r="M25">
-        <v>0.9664143963628303</v>
+        <v>0.9664143963628333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9778453753593236</v>
+        <v>0.9778453753593241</v>
       </c>
       <c r="D2">
-        <v>0.9979485483509839</v>
+        <v>0.9979485483509848</v>
       </c>
       <c r="E2">
-        <v>0.9861295744937494</v>
+        <v>0.9861295744937498</v>
       </c>
       <c r="F2">
-        <v>0.9745123083917683</v>
+        <v>0.9745123083917688</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.00070954055121</v>
       </c>
       <c r="K2">
-        <v>1.009436537334672</v>
+        <v>1.009436537334673</v>
       </c>
       <c r="L2">
-        <v>0.9977855894266555</v>
+        <v>0.997785589426656</v>
       </c>
       <c r="M2">
-        <v>0.9863385304132344</v>
+        <v>0.9863385304132348</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906692406515909</v>
+        <v>0.9906692406515902</v>
       </c>
       <c r="D3">
         <v>1.007915848661174</v>
       </c>
       <c r="E3">
-        <v>0.9986203816083972</v>
+        <v>0.9986203816083962</v>
       </c>
       <c r="F3">
-        <v>0.9888192745207773</v>
+        <v>0.9888192745207764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038903916831252</v>
+        <v>1.038903916831251</v>
       </c>
       <c r="J3">
         <v>1.01141754445765</v>
       </c>
       <c r="K3">
-        <v>1.018448436817043</v>
+        <v>1.018448436817042</v>
       </c>
       <c r="L3">
-        <v>1.00927094539837</v>
+        <v>1.009270945398369</v>
       </c>
       <c r="M3">
-        <v>0.9995972423971532</v>
+        <v>0.9995972423971524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9985171062774497</v>
+        <v>0.9985171062774485</v>
       </c>
       <c r="D4">
-        <v>1.014012961885905</v>
+        <v>1.014012961885904</v>
       </c>
       <c r="E4">
-        <v>1.006270043040314</v>
+        <v>1.006270043040312</v>
       </c>
       <c r="F4">
-        <v>0.9975835293980829</v>
+        <v>0.9975835293980813</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041952632796009</v>
+        <v>1.041952632796008</v>
       </c>
       <c r="J4">
-        <v>1.017958820842881</v>
+        <v>1.01795882084288</v>
       </c>
       <c r="K4">
-        <v>1.023945154241417</v>
+        <v>1.023945154241415</v>
       </c>
       <c r="L4">
-        <v>1.016293378636218</v>
+        <v>1.016293378636217</v>
       </c>
       <c r="M4">
-        <v>1.007711206852092</v>
+        <v>1.007711206852091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001719453436209</v>
+        <v>1.00171945343621</v>
       </c>
       <c r="D5">
-        <v>1.016500040758432</v>
+        <v>1.016500040758433</v>
       </c>
       <c r="E5">
-        <v>1.009392757701194</v>
+        <v>1.009392757701196</v>
       </c>
       <c r="F5">
-        <v>1.001162052979522</v>
+        <v>1.001162052979524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043191159630593</v>
+        <v>1.043191159630592</v>
       </c>
       <c r="J5">
-        <v>1.020625133917476</v>
+        <v>1.020625133917477</v>
       </c>
       <c r="K5">
-        <v>1.026183609358543</v>
+        <v>1.026183609358544</v>
       </c>
       <c r="L5">
-        <v>1.019157336286239</v>
+        <v>1.019157336286241</v>
       </c>
       <c r="M5">
-        <v>1.011022224581634</v>
+        <v>1.011022224581636</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00225174132641</v>
+        <v>1.002251741326408</v>
       </c>
       <c r="D6">
-        <v>1.016913380654245</v>
+        <v>1.016913380654244</v>
       </c>
       <c r="E6">
-        <v>1.009911879847809</v>
+        <v>1.009911879847807</v>
       </c>
       <c r="F6">
-        <v>1.001757003633186</v>
+        <v>1.001757003633185</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043396698636067</v>
+        <v>1.043396698636066</v>
       </c>
       <c r="J6">
-        <v>1.021068152343495</v>
+        <v>1.021068152343493</v>
       </c>
       <c r="K6">
-        <v>1.026555413451376</v>
+        <v>1.026555413451374</v>
       </c>
       <c r="L6">
-        <v>1.019633283818348</v>
+        <v>1.019633283818346</v>
       </c>
       <c r="M6">
-        <v>1.011572583039654</v>
+        <v>1.011572583039652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985602639497313</v>
+        <v>0.9985602639497279</v>
       </c>
       <c r="D7">
-        <v>1.014046483716005</v>
+        <v>1.014046483716002</v>
       </c>
       <c r="E7">
-        <v>1.006312122686336</v>
+        <v>1.006312122686333</v>
       </c>
       <c r="F7">
-        <v>0.9976317476817043</v>
+        <v>0.9976317476817008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04196934629669</v>
+        <v>1.041969346296688</v>
       </c>
       <c r="J7">
-        <v>1.017994765956955</v>
+        <v>1.017994765956952</v>
       </c>
       <c r="K7">
-        <v>1.023975339665421</v>
+        <v>1.023975339665418</v>
       </c>
       <c r="L7">
-        <v>1.016331982182893</v>
+        <v>1.01633198218289</v>
       </c>
       <c r="M7">
-        <v>1.00775582860505</v>
+        <v>1.007755828605047</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9822795947462835</v>
+        <v>0.9822795947462813</v>
       </c>
       <c r="D8">
-        <v>1.001395424716486</v>
+        <v>1.001395424716484</v>
       </c>
       <c r="E8">
-        <v>0.9904473529820492</v>
+        <v>0.9904473529820466</v>
       </c>
       <c r="F8">
-        <v>0.9794575633009343</v>
+        <v>0.9794575633009318</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035625318281227</v>
       </c>
       <c r="J8">
-        <v>1.004414620570503</v>
+        <v>1.004414620570501</v>
       </c>
       <c r="K8">
-        <v>1.012556527207771</v>
+        <v>1.012556527207769</v>
       </c>
       <c r="L8">
-        <v>1.00175829486209</v>
+        <v>1.001758294862087</v>
       </c>
       <c r="M8">
-        <v>0.9909231774902412</v>
+        <v>0.9909231774902389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9495278865251298</v>
+        <v>0.9495278865251283</v>
       </c>
       <c r="D9">
-        <v>0.9759378410790333</v>
+        <v>0.975937841079032</v>
       </c>
       <c r="E9">
-        <v>0.958587053506232</v>
+        <v>0.9585870535062304</v>
       </c>
       <c r="F9">
-        <v>0.9429633423782228</v>
+        <v>0.9429633423782213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022672038314186</v>
+        <v>1.022672038314185</v>
       </c>
       <c r="J9">
-        <v>0.9769980988806184</v>
+        <v>0.9769980988806172</v>
       </c>
       <c r="K9">
-        <v>0.9894337590564215</v>
+        <v>0.9894337590564205</v>
       </c>
       <c r="L9">
-        <v>0.9723897717478395</v>
+        <v>0.9723897717478378</v>
       </c>
       <c r="M9">
-        <v>0.9570549480545347</v>
+        <v>0.9570549480545333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9237931720132498</v>
+        <v>0.9237931720132497</v>
       </c>
       <c r="D10">
-        <v>0.9559581567850147</v>
+        <v>0.9559581567850144</v>
       </c>
       <c r="E10">
-        <v>0.9336033544219621</v>
+        <v>0.9336033544219615</v>
       </c>
       <c r="F10">
-        <v>0.9143161803861841</v>
+        <v>0.9143161803861835</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.012367802820762</v>
       </c>
       <c r="J10">
-        <v>0.9553943869448546</v>
+        <v>0.9553943869448543</v>
       </c>
       <c r="K10">
-        <v>0.971170891917595</v>
+        <v>0.9711708919175951</v>
       </c>
       <c r="L10">
-        <v>0.9492846572565582</v>
+        <v>0.9492846572565575</v>
       </c>
       <c r="M10">
-        <v>0.9304263566711216</v>
+        <v>0.9304263566711209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9113202727539621</v>
+        <v>0.9113202727539599</v>
       </c>
       <c r="D11">
-        <v>0.9462900163210467</v>
+        <v>0.9462900163210454</v>
       </c>
       <c r="E11">
-        <v>0.921510567950796</v>
+        <v>0.9215105679507936</v>
       </c>
       <c r="F11">
-        <v>0.9004315171687223</v>
+        <v>0.9004315171687198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.007346162788271</v>
+        <v>1.00734616278827</v>
       </c>
       <c r="J11">
-        <v>0.9449116351282354</v>
+        <v>0.9449116351282335</v>
       </c>
       <c r="K11">
-        <v>0.9623012506401865</v>
+        <v>0.9623012506401855</v>
       </c>
       <c r="L11">
-        <v>0.9380817459328256</v>
+        <v>0.9380817459328232</v>
       </c>
       <c r="M11">
-        <v>0.9175117636677159</v>
+        <v>0.9175117636677138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9064352915817216</v>
+        <v>0.906435291581721</v>
       </c>
       <c r="D12">
-        <v>0.942507045898638</v>
+        <v>0.9425070458986375</v>
       </c>
       <c r="E12">
-        <v>0.9167773588366479</v>
+        <v>0.9167773588366476</v>
       </c>
       <c r="F12">
-        <v>0.8949926586494084</v>
+        <v>0.8949926586494077</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.005375682590114</v>
       </c>
       <c r="J12">
-        <v>0.9408046246576769</v>
+        <v>0.9408046246576763</v>
       </c>
       <c r="K12">
-        <v>0.958825327582753</v>
+        <v>0.9588253275827524</v>
       </c>
       <c r="L12">
-        <v>0.9336937773559277</v>
+        <v>0.9336937773559273</v>
       </c>
       <c r="M12">
-        <v>0.9124519312644915</v>
+        <v>0.9124519312644906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074956197444283</v>
+        <v>0.9074956197444282</v>
       </c>
       <c r="D13">
-        <v>0.9433279902712244</v>
+        <v>0.9433279902712245</v>
       </c>
       <c r="E13">
         <v>0.917804603933722</v>
       </c>
       <c r="F13">
-        <v>0.8961732734863314</v>
+        <v>0.896173273486331</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.005803554339715</v>
       </c>
       <c r="J13">
-        <v>0.9416961461914811</v>
+        <v>0.9416961461914812</v>
       </c>
       <c r="K13">
-        <v>0.9595798919392226</v>
+        <v>0.9595798919392228</v>
       </c>
       <c r="L13">
-        <v>0.9346462353172617</v>
+        <v>0.9346462353172615</v>
       </c>
       <c r="M13">
-        <v>0.9135503082352864</v>
+        <v>0.9135503082352862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9109219994385637</v>
+        <v>0.9109219994385586</v>
       </c>
       <c r="D14">
-        <v>0.945981510891022</v>
+        <v>0.9459815108910173</v>
       </c>
       <c r="E14">
-        <v>0.9211246072032389</v>
+        <v>0.9211246072032336</v>
       </c>
       <c r="F14">
-        <v>0.8999881122380974</v>
+        <v>0.8999881122380917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007185582123088</v>
+        <v>1.007185582123086</v>
       </c>
       <c r="J14">
-        <v>0.944576816812512</v>
+        <v>0.9445768168125069</v>
       </c>
       <c r="K14">
-        <v>0.9620178970141298</v>
+        <v>0.9620178970141253</v>
       </c>
       <c r="L14">
-        <v>0.9377239995282035</v>
+        <v>0.9377239995281983</v>
       </c>
       <c r="M14">
-        <v>0.9170992762895839</v>
+        <v>0.9170992762895783</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9129977861726495</v>
+        <v>0.9129977861726516</v>
       </c>
       <c r="D15">
-        <v>0.9475895802177743</v>
+        <v>0.9475895802177761</v>
       </c>
       <c r="E15">
-        <v>0.9231363406777982</v>
+        <v>0.9231363406778005</v>
       </c>
       <c r="F15">
-        <v>0.9022990782870037</v>
+        <v>0.9022990782870058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008022374624531</v>
+        <v>1.008022374624533</v>
       </c>
       <c r="J15">
-        <v>0.9463218219498114</v>
+        <v>0.9463218219498135</v>
       </c>
       <c r="K15">
-        <v>0.9634946442086184</v>
+        <v>0.9634946442086202</v>
       </c>
       <c r="L15">
-        <v>0.9395885484429092</v>
+        <v>0.9395885484429115</v>
       </c>
       <c r="M15">
-        <v>0.9192490675239645</v>
+        <v>0.9192490675239667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9245889405872659</v>
+        <v>0.9245889405872673</v>
       </c>
       <c r="D16">
-        <v>0.9565753821880065</v>
+        <v>0.9565753821880075</v>
       </c>
       <c r="E16">
-        <v>0.9343752310643285</v>
+        <v>0.93437523106433</v>
       </c>
       <c r="F16">
-        <v>0.9152019476475619</v>
+        <v>0.9152019476475629</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01268765789872</v>
+        <v>1.012687657898721</v>
       </c>
       <c r="J16">
-        <v>0.9560629681288509</v>
+        <v>0.9560629681288522</v>
       </c>
       <c r="K16">
-        <v>0.9717364516368823</v>
+        <v>0.9717364516368832</v>
       </c>
       <c r="L16">
-        <v>0.9499993327201027</v>
+        <v>0.9499993327201041</v>
       </c>
       <c r="M16">
-        <v>0.9312500923877786</v>
+        <v>0.9312500923877794</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9314728580273475</v>
+        <v>0.9314728580273448</v>
       </c>
       <c r="D17">
-        <v>0.9619165589393046</v>
+        <v>0.9619165589393023</v>
       </c>
       <c r="E17">
-        <v>0.9410542560824553</v>
+        <v>0.9410542560824524</v>
       </c>
       <c r="F17">
-        <v>0.9228643247750432</v>
+        <v>0.9228643247750405</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015451661008685</v>
+        <v>1.015451661008684</v>
       </c>
       <c r="J17">
-        <v>0.9618453519319897</v>
+        <v>0.9618453519319871</v>
       </c>
       <c r="K17">
-        <v>0.9766269881568443</v>
+        <v>0.9766269881568423</v>
       </c>
       <c r="L17">
-        <v>0.956181276688391</v>
+        <v>0.9561812766883885</v>
       </c>
       <c r="M17">
-        <v>0.9383749824329469</v>
+        <v>0.938374982432944</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9353641928440652</v>
+        <v>0.9353641928440648</v>
       </c>
       <c r="D18">
-        <v>0.9649371155274596</v>
+        <v>0.964937115527459</v>
       </c>
       <c r="E18">
-        <v>0.9448311842304069</v>
+        <v>0.9448311842304061</v>
       </c>
       <c r="F18">
-        <v>0.9271957616424953</v>
+        <v>0.9271957616424946</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.017011596579916</v>
       </c>
       <c r="J18">
-        <v>0.9651129043262212</v>
+        <v>0.9651129043262207</v>
       </c>
       <c r="K18">
-        <v>0.9793898312209317</v>
+        <v>0.9793898312209312</v>
       </c>
       <c r="L18">
-        <v>0.9596753726928934</v>
+        <v>0.9596753726928927</v>
       </c>
       <c r="M18">
-        <v>0.9424018181506018</v>
+        <v>0.942401818150601</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9366712906749106</v>
+        <v>0.9366712906749101</v>
       </c>
       <c r="D19">
-        <v>0.9659519118523774</v>
+        <v>0.9659519118523767</v>
       </c>
       <c r="E19">
-        <v>0.9461000816290197</v>
+        <v>0.9461000816290185</v>
       </c>
       <c r="F19">
-        <v>0.9286507197415983</v>
+        <v>0.9286507197415972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017535146320282</v>
+        <v>1.017535146320281</v>
       </c>
       <c r="J19">
-        <v>0.9662102780462012</v>
+        <v>0.9662102780462004</v>
       </c>
       <c r="K19">
-        <v>0.9803175718095825</v>
+        <v>0.9803175718095817</v>
       </c>
       <c r="L19">
-        <v>0.9608489586129881</v>
+        <v>0.960848958612987</v>
       </c>
       <c r="M19">
-        <v>0.9437543225088662</v>
+        <v>0.9437543225088652</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9307474121059349</v>
+        <v>0.930747412105935</v>
       </c>
       <c r="D20">
-        <v>0.9613535480602283</v>
+        <v>0.9613535480602285</v>
       </c>
       <c r="E20">
-        <v>0.9403502513958142</v>
+        <v>0.9403502513958141</v>
       </c>
       <c r="F20">
-        <v>0.9220568421093917</v>
+        <v>0.922056842109392</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.015160642227616</v>
       </c>
       <c r="J20">
-        <v>0.9612361026967419</v>
+        <v>0.9612361026967422</v>
       </c>
       <c r="K20">
-        <v>0.976111782197055</v>
+        <v>0.9761117821970553</v>
       </c>
       <c r="L20">
-        <v>0.955529849689536</v>
+        <v>0.9555298496895361</v>
       </c>
       <c r="M20">
-        <v>0.9376242204161467</v>
+        <v>0.9376242204161468</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9099205009245666</v>
+        <v>0.9099205009245667</v>
       </c>
       <c r="D21">
-        <v>0.9452058039561759</v>
+        <v>0.9452058039561765</v>
       </c>
       <c r="E21">
-        <v>0.9201541180163565</v>
+        <v>0.9201541180163568</v>
       </c>
       <c r="F21">
-        <v>0.8988731064726849</v>
+        <v>0.898873106472685</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.006781727272501</v>
       </c>
       <c r="J21">
-        <v>0.9437348603657701</v>
+        <v>0.9437348603657706</v>
       </c>
       <c r="K21">
-        <v>0.9613053438010958</v>
+        <v>0.9613053438010963</v>
       </c>
       <c r="L21">
-        <v>0.936824405275372</v>
+        <v>0.9368244052753727</v>
       </c>
       <c r="M21">
-        <v>0.9160620029540987</v>
+        <v>0.916062002954099</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8953232082015877</v>
+        <v>0.8953232082015889</v>
       </c>
       <c r="D22">
-        <v>0.9339102000920286</v>
+        <v>0.9339102000920293</v>
       </c>
       <c r="E22">
-        <v>0.9060166683276547</v>
+        <v>0.9060166683276555</v>
       </c>
       <c r="F22">
-        <v>0.882617351144617</v>
+        <v>0.8826173511446179</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.00088682900031</v>
       </c>
       <c r="J22">
-        <v>0.9314600055199571</v>
+        <v>0.931460005519958</v>
       </c>
       <c r="K22">
-        <v>0.9509153489856067</v>
+        <v>0.9509153489856071</v>
       </c>
       <c r="L22">
-        <v>0.9237120244648507</v>
+        <v>0.9237120244648513</v>
       </c>
       <c r="M22">
-        <v>0.9009376797821446</v>
+        <v>0.9009376797821455</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032278234060971</v>
+        <v>0.9032278234060988</v>
       </c>
       <c r="D23">
-        <v>0.9400243472555568</v>
+        <v>0.9400243472555583</v>
       </c>
       <c r="E23">
-        <v>0.913670438927074</v>
+        <v>0.9136704389270758</v>
       </c>
       <c r="F23">
-        <v>0.8914210864593325</v>
+        <v>0.8914210864593342</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.004080864427045</v>
       </c>
       <c r="J23">
-        <v>0.9381076126963792</v>
+        <v>0.9381076126963809</v>
       </c>
       <c r="K23">
-        <v>0.9565425315270155</v>
+        <v>0.9565425315270167</v>
       </c>
       <c r="L23">
-        <v>0.9308125894048931</v>
+        <v>0.9308125894048948</v>
       </c>
       <c r="M23">
-        <v>0.909129031429263</v>
+        <v>0.9091290314292648</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9310755892240157</v>
+        <v>0.931075589224016</v>
       </c>
       <c r="D24">
         <v>0.9616082388461</v>
       </c>
       <c r="E24">
-        <v>0.9406687245344122</v>
+        <v>0.9406687245344127</v>
       </c>
       <c r="F24">
-        <v>0.9224221307642136</v>
+        <v>0.922422130764214</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.01529230110371</v>
       </c>
       <c r="J24">
-        <v>0.9615117182679728</v>
+        <v>0.9615117182679729</v>
       </c>
       <c r="K24">
-        <v>0.9763448562748152</v>
+        <v>0.9763448562748154</v>
       </c>
       <c r="L24">
-        <v>0.9558245434979636</v>
+        <v>0.9558245434979642</v>
       </c>
       <c r="M24">
-        <v>0.9379638522280671</v>
+        <v>0.9379638522280673</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9585771835757844</v>
+        <v>0.9585771835757817</v>
       </c>
       <c r="D25">
-        <v>0.9829702812196026</v>
+        <v>0.9829702812196004</v>
       </c>
       <c r="E25">
-        <v>0.9673828331674111</v>
+        <v>0.9673828331674081</v>
       </c>
       <c r="F25">
-        <v>0.9530405541897</v>
+        <v>0.9530405541896968</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026272111492053</v>
+        <v>1.026272111492051</v>
       </c>
       <c r="J25">
-        <v>0.9845837874205952</v>
+        <v>0.9845837874205927</v>
       </c>
       <c r="K25">
-        <v>0.9958388424052533</v>
+        <v>0.9958388424052511</v>
       </c>
       <c r="L25">
-        <v>0.9805095115817882</v>
+        <v>0.9805095115817855</v>
       </c>
       <c r="M25">
-        <v>0.9664143963628333</v>
+        <v>0.9664143963628303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9778453753593241</v>
+        <v>0.9810613731734945</v>
       </c>
       <c r="D2">
-        <v>0.9979485483509848</v>
+        <v>1.00042510817213</v>
       </c>
       <c r="E2">
-        <v>0.9861295744937498</v>
+        <v>0.9893399251070991</v>
       </c>
       <c r="F2">
-        <v>0.9745123083917688</v>
+        <v>0.9778291900486041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033885097380062</v>
+        <v>1.035284391062869</v>
       </c>
       <c r="J2">
-        <v>1.00070954055121</v>
+        <v>1.00382367692834</v>
       </c>
       <c r="K2">
-        <v>1.009436537334673</v>
+        <v>1.011878523738113</v>
       </c>
       <c r="L2">
-        <v>0.997785589426656</v>
+        <v>1.000949796983982</v>
       </c>
       <c r="M2">
-        <v>0.9863385304132348</v>
+        <v>0.9896062917669093</v>
+      </c>
+      <c r="N2">
+        <v>1.005249221689763</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906692406515902</v>
+        <v>0.9938333512965838</v>
       </c>
       <c r="D3">
-        <v>1.007915848661174</v>
+        <v>1.010355099218077</v>
       </c>
       <c r="E3">
-        <v>0.9986203816083962</v>
+        <v>1.001782193560732</v>
       </c>
       <c r="F3">
-        <v>0.9888192745207764</v>
+        <v>0.9920751286892381</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038903916831251</v>
+        <v>1.040284350506265</v>
       </c>
       <c r="J3">
-        <v>1.01141754445765</v>
+        <v>1.014493548800645</v>
       </c>
       <c r="K3">
-        <v>1.018448436817042</v>
+        <v>1.020857177176192</v>
       </c>
       <c r="L3">
-        <v>1.009270945398369</v>
+        <v>1.01239232156401</v>
       </c>
       <c r="M3">
-        <v>0.9995972423971524</v>
+        <v>1.002810424142816</v>
+      </c>
+      <c r="N3">
+        <v>1.015934246003978</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9985171062774485</v>
+        <v>1.00165280389263</v>
       </c>
       <c r="D4">
-        <v>1.014012961885904</v>
+        <v>1.016431895967972</v>
       </c>
       <c r="E4">
-        <v>1.006270043040312</v>
+        <v>1.009405328380176</v>
       </c>
       <c r="F4">
-        <v>0.9975835293980813</v>
+        <v>1.000805772989912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041952632796008</v>
+        <v>1.043322928732023</v>
       </c>
       <c r="J4">
-        <v>1.01795882084288</v>
+        <v>1.021014325064039</v>
       </c>
       <c r="K4">
-        <v>1.023945154241415</v>
+        <v>1.02633596650164</v>
       </c>
       <c r="L4">
-        <v>1.016293378636217</v>
+        <v>1.019391549390892</v>
       </c>
       <c r="M4">
-        <v>1.007711206852091</v>
+        <v>1.01089448276046</v>
+      </c>
+      <c r="N4">
+        <v>1.02246428251761</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00171945343621</v>
+        <v>1.004844242949797</v>
       </c>
       <c r="D5">
-        <v>1.016500040758433</v>
+        <v>1.018911203547218</v>
       </c>
       <c r="E5">
-        <v>1.009392757701196</v>
+        <v>1.012517871307718</v>
       </c>
       <c r="F5">
-        <v>1.001162052979524</v>
+        <v>1.004371346156447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043191159630592</v>
+        <v>1.044557609874164</v>
       </c>
       <c r="J5">
-        <v>1.020625133917477</v>
+        <v>1.023672857199642</v>
       </c>
       <c r="K5">
-        <v>1.026183609358544</v>
+        <v>1.028567605550183</v>
       </c>
       <c r="L5">
-        <v>1.019157336286241</v>
+        <v>1.022246656505448</v>
       </c>
       <c r="M5">
-        <v>1.011022224581636</v>
+        <v>1.014194013993834</v>
+      </c>
+      <c r="N5">
+        <v>1.025126590073783</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002251741326408</v>
+        <v>1.00537475521305</v>
       </c>
       <c r="D6">
-        <v>1.016913380654244</v>
+        <v>1.019323280147742</v>
       </c>
       <c r="E6">
-        <v>1.009911879847807</v>
+        <v>1.013035338400581</v>
       </c>
       <c r="F6">
-        <v>1.001757003633185</v>
+        <v>1.004964185929913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043396698636066</v>
+        <v>1.044762525646533</v>
       </c>
       <c r="J6">
-        <v>1.021068152343493</v>
+        <v>1.024114614285322</v>
       </c>
       <c r="K6">
-        <v>1.026555413451374</v>
+        <v>1.028938304088681</v>
       </c>
       <c r="L6">
-        <v>1.019633283818346</v>
+        <v>1.022721166765278</v>
       </c>
       <c r="M6">
-        <v>1.011572583039652</v>
+        <v>1.014742502336897</v>
+      </c>
+      <c r="N6">
+        <v>1.025568974505195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9985602639497279</v>
+        <v>1.001695811964114</v>
       </c>
       <c r="D7">
-        <v>1.014046483716002</v>
+        <v>1.016465311100038</v>
       </c>
       <c r="E7">
-        <v>1.006312122686333</v>
+        <v>1.009447268475566</v>
       </c>
       <c r="F7">
-        <v>0.9976317476817008</v>
+        <v>1.000853813855335</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041969346296688</v>
+        <v>1.043339589300537</v>
       </c>
       <c r="J7">
-        <v>1.017994765956952</v>
+        <v>1.021050163103726</v>
       </c>
       <c r="K7">
-        <v>1.023975339665418</v>
+        <v>1.026366058173165</v>
       </c>
       <c r="L7">
-        <v>1.01633198218289</v>
+        <v>1.019430031319618</v>
       </c>
       <c r="M7">
-        <v>1.007755828605047</v>
+        <v>1.010938947002771</v>
+      </c>
+      <c r="N7">
+        <v>1.022500171451424</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9822795947462813</v>
+        <v>0.9854768517016537</v>
       </c>
       <c r="D8">
-        <v>1.001395424716484</v>
+        <v>1.003858483428677</v>
       </c>
       <c r="E8">
-        <v>0.9904473529820466</v>
+        <v>0.9936401595603974</v>
       </c>
       <c r="F8">
-        <v>0.9794575633009318</v>
+        <v>0.9827524467751848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035625318281227</v>
+        <v>1.037017756518426</v>
       </c>
       <c r="J8">
-        <v>1.004414620570501</v>
+        <v>1.007514894516758</v>
       </c>
       <c r="K8">
-        <v>1.012556527207769</v>
+        <v>1.014986441546172</v>
       </c>
       <c r="L8">
-        <v>1.001758294862087</v>
+        <v>1.004906973713029</v>
       </c>
       <c r="M8">
-        <v>0.9909231774902389</v>
+        <v>0.9941712291517734</v>
+      </c>
+      <c r="N8">
+        <v>1.008945681230545</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9495278865251283</v>
+        <v>0.9528861073602983</v>
       </c>
       <c r="D9">
-        <v>0.975937841079032</v>
+        <v>0.9785174466813187</v>
       </c>
       <c r="E9">
-        <v>0.9585870535062304</v>
+        <v>0.9619308825285854</v>
       </c>
       <c r="F9">
-        <v>0.9429633423782213</v>
+        <v>0.9464461101288612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022672038314185</v>
+        <v>1.024124414528731</v>
       </c>
       <c r="J9">
-        <v>0.9769980988806172</v>
+        <v>0.980219773400228</v>
       </c>
       <c r="K9">
-        <v>0.9894337590564205</v>
+        <v>0.9919689523410087</v>
       </c>
       <c r="L9">
-        <v>0.9723897717478378</v>
+        <v>0.9756733560339946</v>
       </c>
       <c r="M9">
-        <v>0.9570549480545333</v>
+        <v>0.9604722399297713</v>
+      </c>
+      <c r="N9">
+        <v>0.9816117979112357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9237931720132497</v>
+        <v>0.9273218792539047</v>
       </c>
       <c r="D10">
-        <v>0.9559581567850144</v>
+        <v>0.9586619791238555</v>
       </c>
       <c r="E10">
-        <v>0.9336033544219615</v>
+        <v>0.9371077014228679</v>
       </c>
       <c r="F10">
-        <v>0.9143161803861835</v>
+        <v>0.9179964658148878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012367802820762</v>
+        <v>1.01388520872765</v>
       </c>
       <c r="J10">
-        <v>0.9553943869448543</v>
+        <v>0.9587483984907241</v>
       </c>
       <c r="K10">
-        <v>0.9711708919175951</v>
+        <v>0.9738199908410772</v>
       </c>
       <c r="L10">
-        <v>0.9492846572565575</v>
+        <v>0.9527135925145522</v>
       </c>
       <c r="M10">
-        <v>0.9304263566711209</v>
+        <v>0.9340229505352111</v>
+      </c>
+      <c r="N10">
+        <v>0.9601099311865592</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9113202727539599</v>
+        <v>0.9149496439046614</v>
       </c>
       <c r="D11">
-        <v>0.9462900163210454</v>
+        <v>0.9490673371261655</v>
       </c>
       <c r="E11">
-        <v>0.9215105679507936</v>
+        <v>0.925109860564866</v>
       </c>
       <c r="F11">
-        <v>0.9004315171687198</v>
+        <v>0.9042281013584518</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00734616278827</v>
+        <v>1.008902351163647</v>
       </c>
       <c r="J11">
-        <v>0.9449116351282335</v>
+        <v>0.9483448626858899</v>
       </c>
       <c r="K11">
-        <v>0.9623012506401855</v>
+        <v>0.9650182297886956</v>
       </c>
       <c r="L11">
-        <v>0.9380817459328232</v>
+        <v>0.9415972139796662</v>
       </c>
       <c r="M11">
-        <v>0.9175117636677138</v>
+        <v>0.9212142982542261</v>
+      </c>
+      <c r="N11">
+        <v>0.9496916211675799</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.906435291581721</v>
+        <v>0.9101079025813774</v>
       </c>
       <c r="D12">
-        <v>0.9425070458986375</v>
+        <v>0.9453159567577989</v>
       </c>
       <c r="E12">
-        <v>0.9167773588366476</v>
+        <v>0.9204174637790823</v>
       </c>
       <c r="F12">
-        <v>0.8949926586494077</v>
+        <v>0.8988391557471357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.005375682590114</v>
+        <v>1.006948589165817</v>
       </c>
       <c r="J12">
-        <v>0.9408046246576763</v>
+        <v>0.9442720603269209</v>
       </c>
       <c r="K12">
-        <v>0.9588253275827524</v>
+        <v>0.9615715630478816</v>
       </c>
       <c r="L12">
-        <v>0.9336937773559273</v>
+        <v>0.9372465350164655</v>
       </c>
       <c r="M12">
-        <v>0.9124519312644906</v>
+        <v>0.9161999914188645</v>
+      </c>
+      <c r="N12">
+        <v>0.9456130349621045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074956197444282</v>
+        <v>0.9111586495450223</v>
       </c>
       <c r="D13">
-        <v>0.9433279902712245</v>
+        <v>0.94612990056522</v>
       </c>
       <c r="E13">
-        <v>0.917804603933722</v>
+        <v>0.9214356642353264</v>
       </c>
       <c r="F13">
-        <v>0.896173273486331</v>
+        <v>0.9000087125023885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005803554339715</v>
+        <v>1.007372753803811</v>
       </c>
       <c r="J13">
-        <v>0.9416961461914812</v>
+        <v>0.9451559935682369</v>
       </c>
       <c r="K13">
-        <v>0.9595798919392228</v>
+        <v>0.9623196402678125</v>
       </c>
       <c r="L13">
-        <v>0.9346462353172615</v>
+        <v>0.9381907247077026</v>
       </c>
       <c r="M13">
-        <v>0.9135503082352862</v>
+        <v>0.9172882796973917</v>
+      </c>
+      <c r="N13">
+        <v>0.9464982234900112</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9109219994385586</v>
+        <v>0.9145548110396849</v>
       </c>
       <c r="D14">
-        <v>0.9459815108910173</v>
+        <v>0.9487613448704103</v>
       </c>
       <c r="E14">
-        <v>0.9211246072032336</v>
+        <v>0.9247271465366657</v>
       </c>
       <c r="F14">
-        <v>0.8999881122380917</v>
+        <v>0.9037886686145317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007185582123086</v>
+        <v>1.008743099549108</v>
       </c>
       <c r="J14">
-        <v>0.9445768168125069</v>
+        <v>0.9480127625539858</v>
       </c>
       <c r="K14">
-        <v>0.9620178970141253</v>
+        <v>0.9647372020460794</v>
       </c>
       <c r="L14">
-        <v>0.9377239995281983</v>
+        <v>0.9412424321755247</v>
       </c>
       <c r="M14">
-        <v>0.9170992762895783</v>
+        <v>0.9208054327635161</v>
+      </c>
+      <c r="N14">
+        <v>0.9493590494153962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9129977861726516</v>
+        <v>0.9166128270175742</v>
       </c>
       <c r="D15">
-        <v>0.9475895802177761</v>
+        <v>0.9503564337511251</v>
       </c>
       <c r="E15">
-        <v>0.9231363406778005</v>
+        <v>0.9267221110526578</v>
       </c>
       <c r="F15">
-        <v>0.9022990782870058</v>
+        <v>0.9060791157563511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008022374624533</v>
+        <v>1.009573029476582</v>
       </c>
       <c r="J15">
-        <v>0.9463218219498135</v>
+        <v>0.9497437347138104</v>
       </c>
       <c r="K15">
-        <v>0.9634946442086202</v>
+        <v>0.9662019393177571</v>
       </c>
       <c r="L15">
-        <v>0.9395885484429115</v>
+        <v>0.9430916729078606</v>
       </c>
       <c r="M15">
-        <v>0.9192490675239667</v>
+        <v>0.9229365168673761</v>
+      </c>
+      <c r="N15">
+        <v>0.9510924797542328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9245889405872673</v>
+        <v>0.9281116652682085</v>
       </c>
       <c r="D16">
-        <v>0.9565753821880075</v>
+        <v>0.9592748389949878</v>
       </c>
       <c r="E16">
-        <v>0.93437523106433</v>
+        <v>0.9378739386811453</v>
       </c>
       <c r="F16">
-        <v>0.9152019476475629</v>
+        <v>0.9188753157111271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012687657898721</v>
+        <v>1.014202766110152</v>
       </c>
       <c r="J16">
-        <v>0.9560629681288522</v>
+        <v>0.9594122929406658</v>
       </c>
       <c r="K16">
-        <v>0.9717364516368832</v>
+        <v>0.9743815281893543</v>
       </c>
       <c r="L16">
-        <v>0.9499993327201041</v>
+        <v>0.9534231392115228</v>
       </c>
       <c r="M16">
-        <v>0.9312500923877794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9348403919541042</v>
+      </c>
+      <c r="N16">
+        <v>0.9607747684427698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9314728580273448</v>
+        <v>0.9349458562628491</v>
       </c>
       <c r="D17">
-        <v>0.9619165589393023</v>
+        <v>0.9645797445733192</v>
       </c>
       <c r="E17">
-        <v>0.9410542560824524</v>
+        <v>0.9445061062667027</v>
       </c>
       <c r="F17">
-        <v>0.9228643247750405</v>
+        <v>0.9264801650330947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015451661008684</v>
+        <v>1.016947708554174</v>
       </c>
       <c r="J17">
-        <v>0.9618453519319871</v>
+        <v>0.965155827288686</v>
       </c>
       <c r="K17">
-        <v>0.9766269881568423</v>
+        <v>0.9792386922156582</v>
       </c>
       <c r="L17">
-        <v>0.9561812766883885</v>
+        <v>0.9595625234045804</v>
       </c>
       <c r="M17">
-        <v>0.938374982432944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.941912971921831</v>
+      </c>
+      <c r="N17">
+        <v>0.9665264592683569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9353641928440648</v>
+        <v>0.9388106173592289</v>
       </c>
       <c r="D18">
-        <v>0.964937115527459</v>
+        <v>0.96758093045713</v>
       </c>
       <c r="E18">
-        <v>0.9448311842304061</v>
+        <v>0.9482580069981597</v>
       </c>
       <c r="F18">
-        <v>0.9271957616424946</v>
+        <v>0.9307808328216246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017011596579916</v>
+        <v>1.018497488705289</v>
       </c>
       <c r="J18">
-        <v>0.9651129043262207</v>
+        <v>0.9684027031041428</v>
       </c>
       <c r="K18">
-        <v>0.9793898312209312</v>
+        <v>0.9819837504429286</v>
       </c>
       <c r="L18">
-        <v>0.9596753726928927</v>
+        <v>0.9630339312114733</v>
       </c>
       <c r="M18">
-        <v>0.942401818150601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9459118583882036</v>
+      </c>
+      <c r="N18">
+        <v>0.9697779460198933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9366712906749101</v>
+        <v>0.9401090264501817</v>
       </c>
       <c r="D19">
-        <v>0.9659519118523767</v>
+        <v>0.9685893954084441</v>
       </c>
       <c r="E19">
-        <v>0.9461000816290185</v>
+        <v>0.9495187233979775</v>
       </c>
       <c r="F19">
-        <v>0.9286507197415972</v>
+        <v>0.9322257258612822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017535146320281</v>
+        <v>1.019017723117247</v>
       </c>
       <c r="J19">
-        <v>0.9662102780462004</v>
+        <v>0.9694933302004302</v>
       </c>
       <c r="K19">
-        <v>0.9803175718095817</v>
+        <v>0.9829056842503019</v>
       </c>
       <c r="L19">
-        <v>0.960848958612987</v>
+        <v>0.9642001080100278</v>
       </c>
       <c r="M19">
-        <v>0.9437543225088652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9472552249695531</v>
+      </c>
+      <c r="N19">
+        <v>0.9708701219317537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.930747412105935</v>
+        <v>0.9342254840721629</v>
       </c>
       <c r="D20">
-        <v>0.9613535480602285</v>
+        <v>0.9640204332263215</v>
       </c>
       <c r="E20">
-        <v>0.9403502513958141</v>
+        <v>0.9438068811570131</v>
       </c>
       <c r="F20">
-        <v>0.922056842109392</v>
+        <v>0.9256785548795805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015160642227616</v>
+        <v>1.016658631313422</v>
       </c>
       <c r="J20">
-        <v>0.9612361026967422</v>
+        <v>0.9645505328401336</v>
       </c>
       <c r="K20">
-        <v>0.9761117821970553</v>
+        <v>0.9787268860449166</v>
       </c>
       <c r="L20">
-        <v>0.9555298496895361</v>
+        <v>0.9589154328816371</v>
       </c>
       <c r="M20">
-        <v>0.9376242204161468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9411675466589554</v>
+      </c>
+      <c r="N20">
+        <v>0.9659203052322591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9099205009245667</v>
+        <v>0.9135620294739767</v>
       </c>
       <c r="D21">
-        <v>0.9452058039561765</v>
+        <v>0.9479920057561642</v>
       </c>
       <c r="E21">
-        <v>0.9201541180163568</v>
+        <v>0.9237648839091179</v>
       </c>
       <c r="F21">
-        <v>0.898873106472685</v>
+        <v>0.9026837264004147</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.006781727272501</v>
+        <v>1.008342612995099</v>
       </c>
       <c r="J21">
-        <v>0.9437348603657706</v>
+        <v>0.9471776959635611</v>
       </c>
       <c r="K21">
-        <v>0.9613053438010963</v>
+        <v>0.9640305433927495</v>
       </c>
       <c r="L21">
-        <v>0.9368244052753727</v>
+        <v>0.940350351138233</v>
       </c>
       <c r="M21">
-        <v>0.916062002954099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.919777336407946</v>
+      </c>
+      <c r="N21">
+        <v>0.9485227969346296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8953232082015889</v>
+        <v>0.8991032440978365</v>
       </c>
       <c r="D22">
-        <v>0.9339102000920293</v>
+        <v>0.9367976239104103</v>
       </c>
       <c r="E22">
-        <v>0.9060166683276555</v>
+        <v>0.9097582290536589</v>
       </c>
       <c r="F22">
-        <v>0.8826173511446179</v>
+        <v>0.8865877793691473</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00088682900031</v>
+        <v>1.002501388937267</v>
       </c>
       <c r="J22">
-        <v>0.931460005519958</v>
+        <v>0.9350128123233229</v>
       </c>
       <c r="K22">
-        <v>0.9509153489856071</v>
+        <v>0.9537344693314316</v>
       </c>
       <c r="L22">
-        <v>0.9237120244648513</v>
+        <v>0.9273576791432599</v>
       </c>
       <c r="M22">
-        <v>0.9009376797821455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9047988951493804</v>
+      </c>
+      <c r="N22">
+        <v>0.9363406377642906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032278234060988</v>
+        <v>0.9069301017817147</v>
       </c>
       <c r="D23">
-        <v>0.9400243472555583</v>
+        <v>0.94285493715587</v>
       </c>
       <c r="E23">
-        <v>0.9136704389270758</v>
+        <v>0.9173385544146225</v>
       </c>
       <c r="F23">
-        <v>0.8914210864593342</v>
+        <v>0.8953018184078335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.004080864427045</v>
+        <v>1.005665258639265</v>
       </c>
       <c r="J23">
-        <v>0.9381076126963809</v>
+        <v>0.9415985734008967</v>
       </c>
       <c r="K23">
-        <v>0.9565425315270167</v>
+        <v>0.9593088688312273</v>
       </c>
       <c r="L23">
-        <v>0.9308125894048948</v>
+        <v>0.9343909679619816</v>
       </c>
       <c r="M23">
-        <v>0.9091290314292648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9129083340784004</v>
+      </c>
+      <c r="N23">
+        <v>0.942935751377992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.931075589224016</v>
+        <v>0.9345513611992299</v>
       </c>
       <c r="D24">
-        <v>0.9616082388461</v>
+        <v>0.9642734469236427</v>
       </c>
       <c r="E24">
-        <v>0.9406687245344127</v>
+        <v>0.9441231876067071</v>
       </c>
       <c r="F24">
-        <v>0.922422130764214</v>
+        <v>0.9260411815296199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01529230110371</v>
+        <v>1.016789409965079</v>
       </c>
       <c r="J24">
-        <v>0.9615117182679729</v>
+        <v>0.9648243553832652</v>
       </c>
       <c r="K24">
-        <v>0.9763448562748154</v>
+        <v>0.9789584187942671</v>
       </c>
       <c r="L24">
-        <v>0.9558245434979642</v>
+        <v>0.9592081607290712</v>
       </c>
       <c r="M24">
-        <v>0.9379638522280673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9415047592318262</v>
+      </c>
+      <c r="N24">
+        <v>0.9661945166348098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9585771835757817</v>
+        <v>0.9618853938062685</v>
       </c>
       <c r="D25">
-        <v>0.9829702812196004</v>
+        <v>0.9855135624990642</v>
       </c>
       <c r="E25">
-        <v>0.9673828331674081</v>
+        <v>0.97067966921403</v>
       </c>
       <c r="F25">
-        <v>0.9530405541896968</v>
+        <v>0.9564651570542206</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026272111492051</v>
+        <v>1.027705653282366</v>
       </c>
       <c r="J25">
-        <v>0.9845837874205927</v>
+        <v>0.9877672580392843</v>
       </c>
       <c r="K25">
-        <v>0.9958388424052511</v>
+        <v>0.9983410030280156</v>
       </c>
       <c r="L25">
-        <v>0.9805095115817855</v>
+        <v>0.9837508633467621</v>
       </c>
       <c r="M25">
-        <v>0.9664143963628303</v>
+        <v>0.9697791101402495</v>
+      </c>
+      <c r="N25">
+        <v>0.989170000844188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9809049250563902</v>
+      </c>
+      <c r="D2">
+        <v>1.003129815668177</v>
+      </c>
+      <c r="E2">
+        <v>0.9892155021145805</v>
+      </c>
+      <c r="F2">
+        <v>0.9567168519300715</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.038105246473831</v>
+      </c>
+      <c r="J2">
+        <v>1.003672162670982</v>
+      </c>
+      <c r="K2">
+        <v>1.014545718724004</v>
+      </c>
+      <c r="L2">
+        <v>1.000827155287154</v>
+      </c>
+      <c r="M2">
+        <v>0.9688140425394601</v>
+      </c>
+      <c r="N2">
+        <v>1.005097492264781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9867561402862027</v>
+      </c>
+      <c r="D3">
+        <v>1.00733858578631</v>
+      </c>
+      <c r="E3">
+        <v>0.9945302852767557</v>
+      </c>
+      <c r="F3">
+        <v>0.9654188893005685</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.039737064002707</v>
+      </c>
+      <c r="J3">
+        <v>1.007614475085809</v>
+      </c>
+      <c r="K3">
+        <v>1.017878421323271</v>
+      </c>
+      <c r="L3">
+        <v>1.005233633856777</v>
+      </c>
+      <c r="M3">
+        <v>0.9765142363587446</v>
+      </c>
+      <c r="N3">
+        <v>1.009045403215426</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9904364507083345</v>
+      </c>
+      <c r="D4">
+        <v>1.009985781365143</v>
+      </c>
+      <c r="E4">
+        <v>0.9978784924014079</v>
+      </c>
+      <c r="F4">
+        <v>0.9708780215027376</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.040746110402561</v>
+      </c>
+      <c r="J4">
+        <v>1.010087997662684</v>
+      </c>
+      <c r="K4">
+        <v>1.019965162443143</v>
+      </c>
+      <c r="L4">
+        <v>1.008002589769421</v>
+      </c>
+      <c r="M4">
+        <v>0.9813411125525545</v>
+      </c>
+      <c r="N4">
+        <v>1.011522438478077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9919595882032544</v>
+      </c>
+      <c r="D5">
+        <v>1.011081243956719</v>
+      </c>
+      <c r="E5">
+        <v>0.9992654128045235</v>
+      </c>
+      <c r="F5">
+        <v>0.9731344492023887</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.041159485487976</v>
+      </c>
+      <c r="J5">
+        <v>1.011110201607943</v>
+      </c>
+      <c r="K5">
+        <v>1.020826449606411</v>
+      </c>
+      <c r="L5">
+        <v>1.009147888737304</v>
+      </c>
+      <c r="M5">
+        <v>0.9833352561591352</v>
+      </c>
+      <c r="N5">
+        <v>1.012546094070188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9922139535210783</v>
+      </c>
+      <c r="D6">
+        <v>1.011264178025912</v>
+      </c>
+      <c r="E6">
+        <v>0.9994971006803077</v>
+      </c>
+      <c r="F6">
+        <v>0.9735111190187589</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.041228268715583</v>
+      </c>
+      <c r="J6">
+        <v>1.011280822239366</v>
+      </c>
+      <c r="K6">
+        <v>1.020970146299504</v>
+      </c>
+      <c r="L6">
+        <v>1.009339114731472</v>
+      </c>
+      <c r="M6">
+        <v>0.9836680849241672</v>
+      </c>
+      <c r="N6">
+        <v>1.012716957002478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9904568959019264</v>
+      </c>
+      <c r="D7">
+        <v>1.010000486401498</v>
+      </c>
+      <c r="E7">
+        <v>0.9978971043427131</v>
+      </c>
+      <c r="F7">
+        <v>0.9709083204920016</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.040751675997108</v>
+      </c>
+      <c r="J7">
+        <v>1.010101724715</v>
+      </c>
+      <c r="K7">
+        <v>1.01997673288329</v>
+      </c>
+      <c r="L7">
+        <v>1.008017965875655</v>
+      </c>
+      <c r="M7">
+        <v>0.9813678934658389</v>
+      </c>
+      <c r="N7">
+        <v>1.011536185024382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9829050767324898</v>
+      </c>
+      <c r="D8">
+        <v>1.004568469811062</v>
+      </c>
+      <c r="E8">
+        <v>0.9910311361448234</v>
+      </c>
+      <c r="F8">
+        <v>0.9596948740219094</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.038666670765847</v>
+      </c>
+      <c r="J8">
+        <v>1.005021061286324</v>
+      </c>
+      <c r="K8">
+        <v>1.015686911844241</v>
+      </c>
+      <c r="L8">
+        <v>1.002333982779191</v>
+      </c>
+      <c r="M8">
+        <v>0.9714499735826819</v>
+      </c>
+      <c r="N8">
+        <v>1.006448306470877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9687245692788212</v>
+      </c>
+      <c r="D9">
+        <v>0.9943729661983399</v>
+      </c>
+      <c r="E9">
+        <v>0.9781836759982528</v>
+      </c>
+      <c r="F9">
+        <v>0.9384944614163403</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.034614579152597</v>
+      </c>
+      <c r="J9">
+        <v>0.9954322293938856</v>
+      </c>
+      <c r="K9">
+        <v>1.007558002636448</v>
+      </c>
+      <c r="L9">
+        <v>0.9916409110364088</v>
+      </c>
+      <c r="M9">
+        <v>0.9526710134597498</v>
+      </c>
+      <c r="N9">
+        <v>0.9968458573372974</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9585854132769056</v>
+      </c>
+      <c r="D10">
+        <v>0.9870936608081948</v>
+      </c>
+      <c r="E10">
+        <v>0.9690319475916896</v>
+      </c>
+      <c r="F10">
+        <v>0.9231906179086442</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.031628823743963</v>
+      </c>
+      <c r="J10">
+        <v>0.988544305490445</v>
+      </c>
+      <c r="K10">
+        <v>1.001699919894688</v>
+      </c>
+      <c r="L10">
+        <v>0.9839837942963365</v>
+      </c>
+      <c r="M10">
+        <v>0.9391004966430654</v>
+      </c>
+      <c r="N10">
+        <v>0.9899481517918578</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9540068187202888</v>
+      </c>
+      <c r="D11">
+        <v>0.9838108482853243</v>
+      </c>
+      <c r="E11">
+        <v>0.9649082614743193</v>
+      </c>
+      <c r="F11">
+        <v>0.9162323380784827</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.030260634589136</v>
+      </c>
+      <c r="J11">
+        <v>0.9854265501650309</v>
+      </c>
+      <c r="K11">
+        <v>0.9990446653955857</v>
+      </c>
+      <c r="L11">
+        <v>0.9805237528910425</v>
+      </c>
+      <c r="M11">
+        <v>0.9329280395857157</v>
+      </c>
+      <c r="N11">
+        <v>0.9868259688962703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9522753184777898</v>
+      </c>
+      <c r="D12">
+        <v>0.982570201171061</v>
+      </c>
+      <c r="E12">
+        <v>0.9633502287296929</v>
+      </c>
+      <c r="F12">
+        <v>0.9135924660886144</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.029740334716406</v>
+      </c>
+      <c r="J12">
+        <v>0.9842464123023352</v>
+      </c>
+      <c r="K12">
+        <v>0.9980391243252893</v>
+      </c>
+      <c r="L12">
+        <v>0.9792149554705569</v>
+      </c>
+      <c r="M12">
+        <v>0.9305860766627539</v>
+      </c>
+      <c r="N12">
+        <v>0.9856441551024459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9526481692605306</v>
+      </c>
+      <c r="D13">
+        <v>0.9828373145486596</v>
+      </c>
+      <c r="E13">
+        <v>0.9636856600289339</v>
+      </c>
+      <c r="F13">
+        <v>0.9141613243791016</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.029852501604418</v>
+      </c>
+      <c r="J13">
+        <v>0.9845005849327575</v>
+      </c>
+      <c r="K13">
+        <v>0.9982557129751248</v>
+      </c>
+      <c r="L13">
+        <v>0.9794967970873355</v>
+      </c>
+      <c r="M13">
+        <v>0.9310907472184303</v>
+      </c>
+      <c r="N13">
+        <v>0.9858986886871577</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9538643365485434</v>
+      </c>
+      <c r="D14">
+        <v>0.9837087398354466</v>
+      </c>
+      <c r="E14">
+        <v>0.9647800240898401</v>
+      </c>
+      <c r="F14">
+        <v>0.9160152870288473</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.030217877981504</v>
+      </c>
+      <c r="J14">
+        <v>0.9853294606378422</v>
+      </c>
+      <c r="K14">
+        <v>0.9989619489354747</v>
+      </c>
+      <c r="L14">
+        <v>0.9804160601481975</v>
+      </c>
+      <c r="M14">
+        <v>0.9327354864189301</v>
+      </c>
+      <c r="N14">
+        <v>0.9867287414908167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9546094942863166</v>
+      </c>
+      <c r="D15">
+        <v>0.9842427843458899</v>
+      </c>
+      <c r="E15">
+        <v>0.9654507427579859</v>
+      </c>
+      <c r="F15">
+        <v>0.9171500759848635</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.030441371040705</v>
+      </c>
+      <c r="J15">
+        <v>0.9858371783673346</v>
+      </c>
+      <c r="K15">
+        <v>0.9993944858712472</v>
+      </c>
+      <c r="L15">
+        <v>0.9809792629180133</v>
+      </c>
+      <c r="M15">
+        <v>0.9337421870447885</v>
+      </c>
+      <c r="N15">
+        <v>0.987237180237721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9588851049238805</v>
+      </c>
+      <c r="D16">
+        <v>0.9873086411295499</v>
+      </c>
+      <c r="E16">
+        <v>0.9693020564359356</v>
+      </c>
+      <c r="F16">
+        <v>0.9236449834781261</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.031717974761677</v>
+      </c>
+      <c r="J16">
+        <v>0.9887482273523545</v>
+      </c>
+      <c r="K16">
+        <v>1.001873522056416</v>
+      </c>
+      <c r="L16">
+        <v>0.9842102272059107</v>
+      </c>
+      <c r="M16">
+        <v>0.9395035118419052</v>
+      </c>
+      <c r="N16">
+        <v>0.9901523632462018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9615149951978047</v>
+      </c>
+      <c r="D17">
+        <v>0.9891956722567015</v>
+      </c>
+      <c r="E17">
+        <v>0.9716733750689339</v>
+      </c>
+      <c r="F17">
+        <v>0.927626692762558</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.032498067682734</v>
+      </c>
+      <c r="J17">
+        <v>0.9905368804901293</v>
+      </c>
+      <c r="K17">
+        <v>1.003395830141715</v>
+      </c>
+      <c r="L17">
+        <v>0.9861969963280004</v>
+      </c>
+      <c r="M17">
+        <v>0.9430349822934451</v>
+      </c>
+      <c r="N17">
+        <v>0.9919435564765937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9630309863432829</v>
+      </c>
+      <c r="D18">
+        <v>0.9902838416709859</v>
+      </c>
+      <c r="E18">
+        <v>0.9730411556997426</v>
+      </c>
+      <c r="F18">
+        <v>0.9299175673875066</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.032945870994442</v>
+      </c>
+      <c r="J18">
+        <v>0.9915672523076943</v>
+      </c>
+      <c r="K18">
+        <v>1.004272423112272</v>
+      </c>
+      <c r="L18">
+        <v>0.9873420460302098</v>
+      </c>
+      <c r="M18">
+        <v>0.9450665900962284</v>
+      </c>
+      <c r="N18">
+        <v>0.9929753915403244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9635449219477977</v>
+      </c>
+      <c r="D19">
+        <v>0.990652804071888</v>
+      </c>
+      <c r="E19">
+        <v>0.9735049871083742</v>
+      </c>
+      <c r="F19">
+        <v>0.930693490621439</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.033097359079091</v>
+      </c>
+      <c r="J19">
+        <v>0.9919164405483525</v>
+      </c>
+      <c r="K19">
+        <v>1.004569435176995</v>
+      </c>
+      <c r="L19">
+        <v>0.9877301910542744</v>
+      </c>
+      <c r="M19">
+        <v>0.9457546582388322</v>
+      </c>
+      <c r="N19">
+        <v>0.9933250756683374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9612347097438699</v>
+      </c>
+      <c r="D20">
+        <v>0.9889945160003571</v>
+      </c>
+      <c r="E20">
+        <v>0.9714205593134019</v>
+      </c>
+      <c r="F20">
+        <v>0.927202797162286</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.032415122320875</v>
+      </c>
+      <c r="J20">
+        <v>0.9903463231402754</v>
+      </c>
+      <c r="K20">
+        <v>1.003233683983368</v>
+      </c>
+      <c r="L20">
+        <v>0.9859852749305434</v>
+      </c>
+      <c r="M20">
+        <v>0.942659041736399</v>
+      </c>
+      <c r="N20">
+        <v>0.9917527285134455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9535070778819088</v>
+      </c>
+      <c r="D21">
+        <v>0.9834527277691989</v>
+      </c>
+      <c r="E21">
+        <v>0.9644585060252922</v>
+      </c>
+      <c r="F21">
+        <v>0.9154709143824741</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.030110624312137</v>
+      </c>
+      <c r="J21">
+        <v>0.9850860016829994</v>
+      </c>
+      <c r="K21">
+        <v>0.9987545242025847</v>
+      </c>
+      <c r="L21">
+        <v>0.9801460274644066</v>
+      </c>
+      <c r="M21">
+        <v>0.9322525523314643</v>
+      </c>
+      <c r="N21">
+        <v>0.986484936796333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9484686738216277</v>
+      </c>
+      <c r="D22">
+        <v>0.9798444010054618</v>
+      </c>
+      <c r="E22">
+        <v>0.9599276832638871</v>
+      </c>
+      <c r="F22">
+        <v>0.9077715854292514</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.028591264851465</v>
+      </c>
+      <c r="J22">
+        <v>0.9816499264526531</v>
+      </c>
+      <c r="K22">
+        <v>0.9958260051125823</v>
+      </c>
+      <c r="L22">
+        <v>0.9763370900362183</v>
+      </c>
+      <c r="M22">
+        <v>0.9254218252647813</v>
+      </c>
+      <c r="N22">
+        <v>0.9830439819450363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9511575944005581</v>
+      </c>
+      <c r="D23">
+        <v>0.9817695890741935</v>
+      </c>
+      <c r="E23">
+        <v>0.9623448965444</v>
+      </c>
+      <c r="F23">
+        <v>0.9118858046431063</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.02940366804839</v>
+      </c>
+      <c r="J23">
+        <v>0.9834843005573033</v>
+      </c>
+      <c r="K23">
+        <v>0.9973896420440647</v>
+      </c>
+      <c r="L23">
+        <v>0.9783700150913895</v>
+      </c>
+      <c r="M23">
+        <v>0.9290719662381456</v>
+      </c>
+      <c r="N23">
+        <v>0.9848809610713204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.961361414051069</v>
+      </c>
+      <c r="D24">
+        <v>0.9890854483760793</v>
+      </c>
+      <c r="E24">
+        <v>0.9715348432095352</v>
+      </c>
+      <c r="F24">
+        <v>0.9273944345559659</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.032452623988494</v>
+      </c>
+      <c r="J24">
+        <v>0.9904324675996946</v>
+      </c>
+      <c r="K24">
+        <v>1.003306985802025</v>
+      </c>
+      <c r="L24">
+        <v>0.9860809852211264</v>
+      </c>
+      <c r="M24">
+        <v>0.9428290000110996</v>
+      </c>
+      <c r="N24">
+        <v>0.991838995307878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9725035218984054</v>
+      </c>
+      <c r="D25">
+        <v>0.9970887197375268</v>
+      </c>
+      <c r="E25">
+        <v>0.981601805978901</v>
+      </c>
+      <c r="F25">
+        <v>0.9441652116870644</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.035709846067729</v>
+      </c>
+      <c r="J25">
+        <v>0.9979930578910533</v>
+      </c>
+      <c r="K25">
+        <v>1.009732398323232</v>
+      </c>
+      <c r="L25">
+        <v>0.9944926064242712</v>
+      </c>
+      <c r="M25">
+        <v>0.9576968927269329</v>
+      </c>
+      <c r="N25">
+        <v>0.999410322504662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9809049250563902</v>
+        <v>1.020324936060262</v>
       </c>
       <c r="D2">
-        <v>1.003129815668177</v>
+        <v>1.024796750750859</v>
       </c>
       <c r="E2">
-        <v>0.9892155021145805</v>
+        <v>1.023942755510264</v>
       </c>
       <c r="F2">
-        <v>0.9567168519300715</v>
+        <v>1.018736697517391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038105246473831</v>
+        <v>1.027717689932059</v>
       </c>
       <c r="J2">
-        <v>1.003672162670982</v>
+        <v>1.025522685975254</v>
       </c>
       <c r="K2">
-        <v>1.014545718724004</v>
+        <v>1.0276242005523</v>
       </c>
       <c r="L2">
-        <v>1.000827155287154</v>
+        <v>1.026772710920981</v>
       </c>
       <c r="M2">
-        <v>0.9688140425394601</v>
+        <v>1.021582026331827</v>
       </c>
       <c r="N2">
-        <v>1.005097492264781</v>
+        <v>1.026979045818436</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9867561402862027</v>
+        <v>1.021488089525021</v>
       </c>
       <c r="D3">
-        <v>1.00733858578631</v>
+        <v>1.025630882903527</v>
       </c>
       <c r="E3">
-        <v>0.9945302852767557</v>
+        <v>1.025053249544341</v>
       </c>
       <c r="F3">
-        <v>0.9654188893005685</v>
+        <v>1.02054296001468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039737064002707</v>
+        <v>1.027933872012262</v>
       </c>
       <c r="J3">
-        <v>1.007614475085809</v>
+        <v>1.026321863204266</v>
       </c>
       <c r="K3">
-        <v>1.017878421323271</v>
+        <v>1.028265426575885</v>
       </c>
       <c r="L3">
-        <v>1.005233633856777</v>
+        <v>1.027689364603089</v>
       </c>
       <c r="M3">
-        <v>0.9765142363587446</v>
+        <v>1.023191411057918</v>
       </c>
       <c r="N3">
-        <v>1.009045403215426</v>
+        <v>1.027779357970779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9904364507083345</v>
+        <v>1.022239701835314</v>
       </c>
       <c r="D4">
-        <v>1.009985781365143</v>
+        <v>1.026169334810706</v>
       </c>
       <c r="E4">
-        <v>0.9978784924014079</v>
+        <v>1.025771169217145</v>
       </c>
       <c r="F4">
-        <v>0.9708780215027376</v>
+        <v>1.021710419467238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040746110402561</v>
+        <v>1.028071393539</v>
       </c>
       <c r="J4">
-        <v>1.010087997662684</v>
+        <v>1.026837479822406</v>
       </c>
       <c r="K4">
-        <v>1.019965162443143</v>
+        <v>1.02867841713493</v>
       </c>
       <c r="L4">
-        <v>1.008002589769421</v>
+        <v>1.028281279809813</v>
       </c>
       <c r="M4">
-        <v>0.9813411125525545</v>
+        <v>1.024231066407151</v>
       </c>
       <c r="N4">
-        <v>1.011522438478077</v>
+        <v>1.028295706823658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9919595882032544</v>
+        <v>1.022555437496151</v>
       </c>
       <c r="D5">
-        <v>1.011081243956719</v>
+        <v>1.026395393258001</v>
       </c>
       <c r="E5">
-        <v>0.9992654128045235</v>
+        <v>1.026072831146604</v>
       </c>
       <c r="F5">
-        <v>0.9731344492023887</v>
+        <v>1.022200915964382</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041159485487976</v>
+        <v>1.028128642449913</v>
       </c>
       <c r="J5">
-        <v>1.011110201607943</v>
+        <v>1.027053887235924</v>
       </c>
       <c r="K5">
-        <v>1.020826449606411</v>
+        <v>1.028851578917684</v>
       </c>
       <c r="L5">
-        <v>1.009147888737304</v>
+        <v>1.028529831157032</v>
       </c>
       <c r="M5">
-        <v>0.9833352561591352</v>
+        <v>1.024667734372825</v>
       </c>
       <c r="N5">
-        <v>1.012546094070188</v>
+        <v>1.028512421560527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9922139535210783</v>
+        <v>1.022608436801555</v>
       </c>
       <c r="D6">
-        <v>1.011264178025912</v>
+        <v>1.026433331520989</v>
       </c>
       <c r="E6">
-        <v>0.9994971006803077</v>
+        <v>1.026123472706589</v>
       </c>
       <c r="F6">
-        <v>0.9735111190187589</v>
+        <v>1.022283255005695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041228268715583</v>
+        <v>1.028138221668284</v>
       </c>
       <c r="J6">
-        <v>1.011280822239366</v>
+        <v>1.027090202078812</v>
       </c>
       <c r="K6">
-        <v>1.020970146299504</v>
+        <v>1.02888062664476</v>
       </c>
       <c r="L6">
-        <v>1.009339114731472</v>
+        <v>1.028571547099974</v>
       </c>
       <c r="M6">
-        <v>0.9836680849241672</v>
+        <v>1.024741029483888</v>
       </c>
       <c r="N6">
-        <v>1.012716957002478</v>
+        <v>1.028548787974656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9904568959019264</v>
+        <v>1.022243921657969</v>
       </c>
       <c r="D7">
-        <v>1.010000486401498</v>
+        <v>1.026172356618241</v>
       </c>
       <c r="E7">
-        <v>0.9978971043427131</v>
+        <v>1.025775200630564</v>
       </c>
       <c r="F7">
-        <v>0.9709083204920016</v>
+        <v>1.02171697468436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040751675997108</v>
+        <v>1.028072160721774</v>
       </c>
       <c r="J7">
-        <v>1.010101724715</v>
+        <v>1.02684037287193</v>
       </c>
       <c r="K7">
-        <v>1.01997673288329</v>
+        <v>1.028680732734619</v>
       </c>
       <c r="L7">
-        <v>1.008017965875655</v>
+        <v>1.028284602100751</v>
       </c>
       <c r="M7">
-        <v>0.9813678934658389</v>
+        <v>1.0242369027581</v>
       </c>
       <c r="N7">
-        <v>1.011536185024382</v>
+        <v>1.028298603981646</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9829050767324898</v>
+        <v>1.020718243673408</v>
       </c>
       <c r="D8">
-        <v>1.004568469811062</v>
+        <v>1.025078917066719</v>
       </c>
       <c r="E8">
-        <v>0.9910311361448234</v>
+        <v>1.024318187209293</v>
       </c>
       <c r="F8">
-        <v>0.9596948740219094</v>
+        <v>1.019347410874691</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038666670765847</v>
+        <v>1.027791239206991</v>
       </c>
       <c r="J8">
-        <v>1.005021061286324</v>
+        <v>1.025793084607024</v>
       </c>
       <c r="K8">
-        <v>1.015686911844241</v>
+        <v>1.027841305519299</v>
       </c>
       <c r="L8">
-        <v>1.002333982779191</v>
+        <v>1.027082752663266</v>
       </c>
       <c r="M8">
-        <v>0.9714499735826819</v>
+        <v>1.022126288252611</v>
       </c>
       <c r="N8">
-        <v>1.006448306470877</v>
+        <v>1.027249828447277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9687245692788212</v>
+        <v>1.018021793773753</v>
       </c>
       <c r="D9">
-        <v>0.9943729661983399</v>
+        <v>1.02314220981357</v>
       </c>
       <c r="E9">
-        <v>0.9781836759982528</v>
+        <v>1.021745685813748</v>
       </c>
       <c r="F9">
-        <v>0.9384944614163403</v>
+        <v>1.015161388744009</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034614579152597</v>
+        <v>1.027278100196354</v>
       </c>
       <c r="J9">
-        <v>0.9954322293938856</v>
+        <v>1.023935999045807</v>
       </c>
       <c r="K9">
-        <v>1.007558002636448</v>
+        <v>1.026347309861923</v>
       </c>
       <c r="L9">
-        <v>0.9916409110364088</v>
+        <v>1.024955475080829</v>
       </c>
       <c r="M9">
-        <v>0.9526710134597498</v>
+        <v>1.018393477663505</v>
       </c>
       <c r="N9">
-        <v>0.9968458573372974</v>
+        <v>1.025390105611553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9585854132769056</v>
+        <v>1.016218555729305</v>
       </c>
       <c r="D10">
-        <v>0.9870936608081948</v>
+        <v>1.021844298989441</v>
       </c>
       <c r="E10">
-        <v>0.9690319475916896</v>
+        <v>1.020027108008343</v>
       </c>
       <c r="F10">
-        <v>0.9231906179086442</v>
+        <v>1.012362927388776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031628823743963</v>
+        <v>1.026923789409411</v>
       </c>
       <c r="J10">
-        <v>0.988544305490445</v>
+        <v>1.022689969682739</v>
       </c>
       <c r="K10">
-        <v>1.001699919894688</v>
+        <v>1.025341248522832</v>
       </c>
       <c r="L10">
-        <v>0.9839837942963365</v>
+        <v>1.023530763688177</v>
       </c>
       <c r="M10">
-        <v>0.9391004966430654</v>
+        <v>1.015895160171292</v>
       </c>
       <c r="N10">
-        <v>0.9899481517918578</v>
+        <v>1.024142306743867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9540068187202888</v>
+        <v>1.01543635461006</v>
       </c>
       <c r="D11">
-        <v>0.9838108482853243</v>
+        <v>1.021280659774086</v>
       </c>
       <c r="E11">
-        <v>0.9649082614743193</v>
+        <v>1.019282056109366</v>
       </c>
       <c r="F11">
-        <v>0.9162323380784827</v>
+        <v>1.011149163759291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030260634589136</v>
+        <v>1.026767462239319</v>
       </c>
       <c r="J11">
-        <v>0.9854265501650309</v>
+        <v>1.022148499272572</v>
       </c>
       <c r="K11">
-        <v>0.9990446653955857</v>
+        <v>1.024903202053747</v>
       </c>
       <c r="L11">
-        <v>0.9805237528910425</v>
+        <v>1.022912262822874</v>
       </c>
       <c r="M11">
-        <v>0.9329280395857157</v>
+        <v>1.014810906304341</v>
       </c>
       <c r="N11">
-        <v>0.9868259688962703</v>
+        <v>1.023600067383611</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9522753184777898</v>
+        <v>1.015145597481999</v>
       </c>
       <c r="D12">
-        <v>0.982570201171061</v>
+        <v>1.021071051268451</v>
       </c>
       <c r="E12">
-        <v>0.9633502287296929</v>
+        <v>1.01900517239936</v>
       </c>
       <c r="F12">
-        <v>0.9135924660886144</v>
+        <v>1.010698002411044</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029740334716406</v>
+        <v>1.026708957584928</v>
       </c>
       <c r="J12">
-        <v>0.9842464123023352</v>
+        <v>1.021947079745868</v>
       </c>
       <c r="K12">
-        <v>0.9980391243252893</v>
+        <v>1.02474012705908</v>
       </c>
       <c r="L12">
-        <v>0.9792149554705569</v>
+        <v>1.022682281655575</v>
       </c>
       <c r="M12">
-        <v>0.9305860766627539</v>
+        <v>1.014407783890572</v>
       </c>
       <c r="N12">
-        <v>0.9856441551024459</v>
+        <v>1.023398361818076</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9526481692605306</v>
+        <v>1.015207975573957</v>
       </c>
       <c r="D13">
-        <v>0.9828373145486596</v>
+        <v>1.021116024252645</v>
       </c>
       <c r="E13">
-        <v>0.9636856600289339</v>
+        <v>1.019064571209775</v>
       </c>
       <c r="F13">
-        <v>0.9141613243791016</v>
+        <v>1.010794792543279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029852501604418</v>
+        <v>1.02672152685634</v>
       </c>
       <c r="J13">
-        <v>0.9845005849327575</v>
+        <v>1.02199029824142</v>
       </c>
       <c r="K13">
-        <v>0.9982557129751248</v>
+        <v>1.024775123752586</v>
       </c>
       <c r="L13">
-        <v>0.9794967970873355</v>
+        <v>1.022731624419673</v>
       </c>
       <c r="M13">
-        <v>0.9310907472184303</v>
+        <v>1.014494272504565</v>
       </c>
       <c r="N13">
-        <v>0.9858986886871577</v>
+        <v>1.023441641688848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9538643365485434</v>
+        <v>1.015412324901919</v>
       </c>
       <c r="D14">
-        <v>0.9837087398354466</v>
+        <v>1.021263338537194</v>
       </c>
       <c r="E14">
-        <v>0.9647800240898401</v>
+        <v>1.019259171656933</v>
       </c>
       <c r="F14">
-        <v>0.9160152870288473</v>
+        <v>1.011111877134837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030217877981504</v>
+        <v>1.026762635161961</v>
       </c>
       <c r="J14">
-        <v>0.9853294606378422</v>
+        <v>1.022131855873252</v>
       </c>
       <c r="K14">
-        <v>0.9989619489354747</v>
+        <v>1.024889729683002</v>
       </c>
       <c r="L14">
-        <v>0.9804160601481975</v>
+        <v>1.022893257472173</v>
       </c>
       <c r="M14">
-        <v>0.9327354864189301</v>
+        <v>1.014777591946156</v>
       </c>
       <c r="N14">
-        <v>0.9867287414908167</v>
+        <v>1.023583400348755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9546094942863166</v>
+        <v>1.015538202936143</v>
       </c>
       <c r="D15">
-        <v>0.9842427843458899</v>
+        <v>1.021354070829119</v>
       </c>
       <c r="E15">
-        <v>0.9654507427579859</v>
+        <v>1.019379052985943</v>
       </c>
       <c r="F15">
-        <v>0.9171500759848635</v>
+        <v>1.011307201210937</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030441371040705</v>
+        <v>1.026787905309557</v>
       </c>
       <c r="J15">
-        <v>0.9858371783673346</v>
+        <v>1.022219035242021</v>
       </c>
       <c r="K15">
-        <v>0.9993944858712472</v>
+        <v>1.024960293743576</v>
       </c>
       <c r="L15">
-        <v>0.9809792629180133</v>
+        <v>1.022992812709328</v>
       </c>
       <c r="M15">
-        <v>0.9337421870447885</v>
+        <v>1.014952103398821</v>
       </c>
       <c r="N15">
-        <v>0.987237180237721</v>
+        <v>1.023670703522227</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9588851049238805</v>
+        <v>1.016270438241133</v>
       </c>
       <c r="D16">
-        <v>0.9873086411295499</v>
+        <v>1.021881671234175</v>
       </c>
       <c r="E16">
-        <v>0.9693020564359356</v>
+        <v>1.020076535457969</v>
       </c>
       <c r="F16">
-        <v>0.9236449834781261</v>
+        <v>1.012443437372628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031717974761677</v>
+        <v>1.026934102983049</v>
       </c>
       <c r="J16">
-        <v>0.9887482273523545</v>
+        <v>1.022725864330704</v>
       </c>
       <c r="K16">
-        <v>1.001873522056416</v>
+        <v>1.025370269153316</v>
       </c>
       <c r="L16">
-        <v>0.9842102272059107</v>
+        <v>1.023571777742113</v>
       </c>
       <c r="M16">
-        <v>0.9395035118419052</v>
+        <v>1.015967065572806</v>
       </c>
       <c r="N16">
-        <v>0.9901523632462018</v>
+        <v>1.02417825236635</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9615149951978047</v>
+        <v>1.016729375629221</v>
       </c>
       <c r="D17">
-        <v>0.9891956722567015</v>
+        <v>1.02221218173345</v>
       </c>
       <c r="E17">
-        <v>0.9716733750689339</v>
+        <v>1.020513805278365</v>
       </c>
       <c r="F17">
-        <v>0.927626692762558</v>
+        <v>1.013155620432739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032498067682734</v>
+        <v>1.027025029703208</v>
       </c>
       <c r="J17">
-        <v>0.9905368804901293</v>
+        <v>1.023043265522063</v>
       </c>
       <c r="K17">
-        <v>1.003395830141715</v>
+        <v>1.025626787741741</v>
       </c>
       <c r="L17">
-        <v>0.9861969963280004</v>
+        <v>1.023934518812718</v>
       </c>
       <c r="M17">
-        <v>0.9430349822934451</v>
+        <v>1.016603056053482</v>
       </c>
       <c r="N17">
-        <v>0.9919435564765937</v>
+        <v>1.024496104303807</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9630309863432829</v>
+        <v>1.016996932504097</v>
       </c>
       <c r="D18">
-        <v>0.9902838416709859</v>
+        <v>1.02240480528324</v>
       </c>
       <c r="E18">
-        <v>0.9730411556997426</v>
+        <v>1.020768771125828</v>
       </c>
       <c r="F18">
-        <v>0.9299175673875066</v>
+        <v>1.013570831596617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032945870994442</v>
+        <v>1.02707778517471</v>
       </c>
       <c r="J18">
-        <v>0.9915672523076943</v>
+        <v>1.023228214121644</v>
       </c>
       <c r="K18">
-        <v>1.004272423112272</v>
+        <v>1.025776177804769</v>
       </c>
       <c r="L18">
-        <v>0.9873420460302098</v>
+        <v>1.024145946218801</v>
       </c>
       <c r="M18">
-        <v>0.9450665900962284</v>
+        <v>1.016973781417454</v>
       </c>
       <c r="N18">
-        <v>0.9929753915403244</v>
+        <v>1.024681315551613</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9635449219477977</v>
+        <v>1.017088139965738</v>
       </c>
       <c r="D19">
-        <v>0.990652804071888</v>
+        <v>1.022470458261965</v>
       </c>
       <c r="E19">
-        <v>0.9735049871083742</v>
+        <v>1.020855693370622</v>
       </c>
       <c r="F19">
-        <v>0.930693490621439</v>
+        <v>1.013712375509827</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033097359079091</v>
+        <v>1.027095725866878</v>
       </c>
       <c r="J19">
-        <v>0.9919164405483525</v>
+        <v>1.023291245334794</v>
       </c>
       <c r="K19">
-        <v>1.004569435176995</v>
+        <v>1.025827076518193</v>
       </c>
       <c r="L19">
-        <v>0.9877301910542744</v>
+        <v>1.024218011593489</v>
       </c>
       <c r="M19">
-        <v>0.9457546582388322</v>
+        <v>1.017100149320524</v>
       </c>
       <c r="N19">
-        <v>0.9933250756683374</v>
+        <v>1.024744436276316</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9612347097438699</v>
+        <v>1.01668014983655</v>
       </c>
       <c r="D20">
-        <v>0.9889945160003571</v>
+        <v>1.022176737405775</v>
       </c>
       <c r="E20">
-        <v>0.9714205593134019</v>
+        <v>1.020466899312378</v>
       </c>
       <c r="F20">
-        <v>0.927202797162286</v>
+        <v>1.013079230009229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032415122320875</v>
+        <v>1.027015303151424</v>
       </c>
       <c r="J20">
-        <v>0.9903463231402754</v>
+        <v>1.02300923065557</v>
       </c>
       <c r="K20">
-        <v>1.003233683983368</v>
+        <v>1.025599289830231</v>
       </c>
       <c r="L20">
-        <v>0.9859852749305434</v>
+        <v>1.023895616012773</v>
       </c>
       <c r="M20">
-        <v>0.942659041736399</v>
+        <v>1.016534844908118</v>
       </c>
       <c r="N20">
-        <v>0.9917527285134455</v>
+        <v>1.024462021103899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9535070778819088</v>
+        <v>1.015352155028124</v>
       </c>
       <c r="D21">
-        <v>0.9834527277691989</v>
+        <v>1.021219965009985</v>
       </c>
       <c r="E21">
-        <v>0.9644585060252922</v>
+        <v>1.01920187052127</v>
       </c>
       <c r="F21">
-        <v>0.9154709143824741</v>
+        <v>1.011018512442314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030110624312137</v>
+        <v>1.026750541882425</v>
       </c>
       <c r="J21">
-        <v>0.9850860016829994</v>
+        <v>1.022090178800908</v>
       </c>
       <c r="K21">
-        <v>0.9987545242025847</v>
+        <v>1.024855991187196</v>
       </c>
       <c r="L21">
-        <v>0.9801460274644066</v>
+        <v>1.022845667285226</v>
       </c>
       <c r="M21">
-        <v>0.9322525523314643</v>
+        <v>1.014694172079237</v>
       </c>
       <c r="N21">
-        <v>0.986484936796333</v>
+        <v>1.023541664090187</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9484686738216277</v>
+        <v>1.014515958550587</v>
       </c>
       <c r="D22">
-        <v>0.9798444010054618</v>
+        <v>1.020616969428455</v>
       </c>
       <c r="E22">
-        <v>0.9599276832638871</v>
+        <v>1.018405694966439</v>
       </c>
       <c r="F22">
-        <v>0.9077715854292514</v>
+        <v>1.009721025500846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028591264851465</v>
+        <v>1.026581542652239</v>
       </c>
       <c r="J22">
-        <v>0.9816499264526531</v>
+        <v>1.021510635862868</v>
       </c>
       <c r="K22">
-        <v>0.9958260051125823</v>
+        <v>1.024386536769869</v>
       </c>
       <c r="L22">
-        <v>0.9763370900362183</v>
+        <v>1.022184118686929</v>
       </c>
       <c r="M22">
-        <v>0.9254218252647813</v>
+        <v>1.013534650523585</v>
       </c>
       <c r="N22">
-        <v>0.9830439819450363</v>
+        <v>1.022961298134701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9511575944005581</v>
+        <v>1.014959360519822</v>
       </c>
       <c r="D23">
-        <v>0.9817695890741935</v>
+        <v>1.020936765516383</v>
       </c>
       <c r="E23">
-        <v>0.9623448965444</v>
+        <v>1.018827839897442</v>
       </c>
       <c r="F23">
-        <v>0.9118858046431063</v>
+        <v>1.010409026002194</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02940366804839</v>
+        <v>1.026671372758923</v>
       </c>
       <c r="J23">
-        <v>0.9834843005573033</v>
+        <v>1.021818024595841</v>
       </c>
       <c r="K23">
-        <v>0.9973896420440647</v>
+        <v>1.024635604463494</v>
       </c>
       <c r="L23">
-        <v>0.9783700150913895</v>
+        <v>1.022534952329316</v>
       </c>
       <c r="M23">
-        <v>0.9290719662381456</v>
+        <v>1.01414954898898</v>
       </c>
       <c r="N23">
-        <v>0.9848809610713204</v>
+        <v>1.023269123394933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.961361414051069</v>
+        <v>1.016702393265721</v>
       </c>
       <c r="D24">
-        <v>0.9890854483760793</v>
+        <v>1.022192753658774</v>
       </c>
       <c r="E24">
-        <v>0.9715348432095352</v>
+        <v>1.02048809436566</v>
       </c>
       <c r="F24">
-        <v>0.9273944345559659</v>
+        <v>1.013113748149013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032452623988494</v>
+        <v>1.027019699028321</v>
       </c>
       <c r="J24">
-        <v>0.9904324675996946</v>
+        <v>1.023024610121701</v>
       </c>
       <c r="K24">
-        <v>1.003306985802025</v>
+        <v>1.025611715672304</v>
       </c>
       <c r="L24">
-        <v>0.9860809852211264</v>
+        <v>1.023913194987081</v>
       </c>
       <c r="M24">
-        <v>0.9428290000110996</v>
+        <v>1.016565667320153</v>
       </c>
       <c r="N24">
-        <v>0.991838995307878</v>
+        <v>1.024477422410637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9725035218984054</v>
+        <v>1.018719862395134</v>
       </c>
       <c r="D25">
-        <v>0.9970887197375268</v>
+        <v>1.023644081460473</v>
       </c>
       <c r="E25">
-        <v>0.981601805978901</v>
+        <v>1.022411356472812</v>
       </c>
       <c r="F25">
-        <v>0.9441652116870644</v>
+        <v>1.016244896303837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035709846067729</v>
+        <v>1.027412909772996</v>
       </c>
       <c r="J25">
-        <v>0.9979930578910533</v>
+        <v>1.024417494014399</v>
       </c>
       <c r="K25">
-        <v>1.009732398323232</v>
+        <v>1.026735309872616</v>
       </c>
       <c r="L25">
-        <v>0.9944926064242712</v>
+        <v>1.02550656561123</v>
       </c>
       <c r="M25">
-        <v>0.9576968927269329</v>
+        <v>1.019360177125491</v>
       </c>
       <c r="N25">
-        <v>0.999410322504662</v>
+        <v>1.025872284358229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020324936060262</v>
+        <v>0.98090492505639</v>
       </c>
       <c r="D2">
-        <v>1.024796750750859</v>
+        <v>1.003129815668177</v>
       </c>
       <c r="E2">
-        <v>1.023942755510264</v>
+        <v>0.9892155021145805</v>
       </c>
       <c r="F2">
-        <v>1.018736697517391</v>
+        <v>0.9567168519300712</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027717689932059</v>
+        <v>1.038105246473831</v>
       </c>
       <c r="J2">
-        <v>1.025522685975254</v>
+        <v>1.003672162670982</v>
       </c>
       <c r="K2">
-        <v>1.0276242005523</v>
+        <v>1.014545718724004</v>
       </c>
       <c r="L2">
-        <v>1.026772710920981</v>
+        <v>1.000827155287154</v>
       </c>
       <c r="M2">
-        <v>1.021582026331827</v>
+        <v>0.9688140425394601</v>
       </c>
       <c r="N2">
-        <v>1.026979045818436</v>
+        <v>1.005097492264781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021488089525021</v>
+        <v>0.9867561402862033</v>
       </c>
       <c r="D3">
-        <v>1.025630882903527</v>
+        <v>1.00733858578631</v>
       </c>
       <c r="E3">
-        <v>1.025053249544341</v>
+        <v>0.9945302852767562</v>
       </c>
       <c r="F3">
-        <v>1.02054296001468</v>
+        <v>0.9654188893005691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027933872012262</v>
+        <v>1.039737064002707</v>
       </c>
       <c r="J3">
-        <v>1.026321863204266</v>
+        <v>1.007614475085809</v>
       </c>
       <c r="K3">
-        <v>1.028265426575885</v>
+        <v>1.017878421323271</v>
       </c>
       <c r="L3">
-        <v>1.027689364603089</v>
+        <v>1.005233633856777</v>
       </c>
       <c r="M3">
-        <v>1.023191411057918</v>
+        <v>0.9765142363587451</v>
       </c>
       <c r="N3">
-        <v>1.027779357970779</v>
+        <v>1.009045403215427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022239701835314</v>
+        <v>0.990436450708334</v>
       </c>
       <c r="D4">
-        <v>1.026169334810706</v>
+        <v>1.009985781365143</v>
       </c>
       <c r="E4">
-        <v>1.025771169217145</v>
+        <v>0.9978784924014074</v>
       </c>
       <c r="F4">
-        <v>1.021710419467238</v>
+        <v>0.9708780215027376</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028071393539</v>
+        <v>1.040746110402561</v>
       </c>
       <c r="J4">
-        <v>1.026837479822406</v>
+        <v>1.010087997662683</v>
       </c>
       <c r="K4">
-        <v>1.02867841713493</v>
+        <v>1.019965162443143</v>
       </c>
       <c r="L4">
-        <v>1.028281279809813</v>
+        <v>1.00800258976942</v>
       </c>
       <c r="M4">
-        <v>1.024231066407151</v>
+        <v>0.9813411125525543</v>
       </c>
       <c r="N4">
-        <v>1.028295706823658</v>
+        <v>1.011522438478077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022555437496151</v>
+        <v>0.9919595882032548</v>
       </c>
       <c r="D5">
-        <v>1.026395393258001</v>
+        <v>1.01108124395672</v>
       </c>
       <c r="E5">
-        <v>1.026072831146604</v>
+        <v>0.999265412804524</v>
       </c>
       <c r="F5">
-        <v>1.022200915964382</v>
+        <v>0.9731344492023895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028128642449913</v>
+        <v>1.041159485487976</v>
       </c>
       <c r="J5">
-        <v>1.027053887235924</v>
+        <v>1.011110201607944</v>
       </c>
       <c r="K5">
-        <v>1.028851578917684</v>
+        <v>1.020826449606412</v>
       </c>
       <c r="L5">
-        <v>1.028529831157032</v>
+        <v>1.009147888737305</v>
       </c>
       <c r="M5">
-        <v>1.024667734372825</v>
+        <v>0.9833352561591359</v>
       </c>
       <c r="N5">
-        <v>1.028512421560527</v>
+        <v>1.012546094070188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022608436801555</v>
+        <v>0.9922139535210786</v>
       </c>
       <c r="D6">
-        <v>1.026433331520989</v>
+        <v>1.011264178025912</v>
       </c>
       <c r="E6">
-        <v>1.026123472706589</v>
+        <v>0.9994971006803081</v>
       </c>
       <c r="F6">
-        <v>1.022283255005695</v>
+        <v>0.9735111190187598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028138221668284</v>
+        <v>1.041228268715583</v>
       </c>
       <c r="J6">
-        <v>1.027090202078812</v>
+        <v>1.011280822239367</v>
       </c>
       <c r="K6">
-        <v>1.02888062664476</v>
+        <v>1.020970146299504</v>
       </c>
       <c r="L6">
-        <v>1.028571547099974</v>
+        <v>1.009339114731472</v>
       </c>
       <c r="M6">
-        <v>1.024741029483888</v>
+        <v>0.9836680849241677</v>
       </c>
       <c r="N6">
-        <v>1.028548787974656</v>
+        <v>1.012716957002478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022243921657969</v>
+        <v>0.990456895901926</v>
       </c>
       <c r="D7">
-        <v>1.026172356618241</v>
+        <v>1.010000486401497</v>
       </c>
       <c r="E7">
-        <v>1.025775200630564</v>
+        <v>0.9978971043427127</v>
       </c>
       <c r="F7">
-        <v>1.02171697468436</v>
+        <v>0.9709083204920016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028072160721774</v>
+        <v>1.040751675997107</v>
       </c>
       <c r="J7">
-        <v>1.02684037287193</v>
+        <v>1.010101724714999</v>
       </c>
       <c r="K7">
-        <v>1.028680732734619</v>
+        <v>1.019976732883289</v>
       </c>
       <c r="L7">
-        <v>1.028284602100751</v>
+        <v>1.008017965875655</v>
       </c>
       <c r="M7">
-        <v>1.0242369027581</v>
+        <v>0.9813678934658385</v>
       </c>
       <c r="N7">
-        <v>1.028298603981646</v>
+        <v>1.011536185024382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020718243673408</v>
+        <v>0.9829050767324892</v>
       </c>
       <c r="D8">
-        <v>1.025078917066719</v>
+        <v>1.004568469811062</v>
       </c>
       <c r="E8">
-        <v>1.024318187209293</v>
+        <v>0.9910311361448226</v>
       </c>
       <c r="F8">
-        <v>1.019347410874691</v>
+        <v>0.9596948740219086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027791239206991</v>
+        <v>1.038666670765846</v>
       </c>
       <c r="J8">
-        <v>1.025793084607024</v>
+        <v>1.005021061286323</v>
       </c>
       <c r="K8">
-        <v>1.027841305519299</v>
+        <v>1.015686911844241</v>
       </c>
       <c r="L8">
-        <v>1.027082752663266</v>
+        <v>1.00233398277919</v>
       </c>
       <c r="M8">
-        <v>1.022126288252611</v>
+        <v>0.9714499735826809</v>
       </c>
       <c r="N8">
-        <v>1.027249828447277</v>
+        <v>1.006448306470877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018021793773753</v>
+        <v>0.9687245692788217</v>
       </c>
       <c r="D9">
-        <v>1.02314220981357</v>
+        <v>0.99437296619834</v>
       </c>
       <c r="E9">
-        <v>1.021745685813748</v>
+        <v>0.9781836759982533</v>
       </c>
       <c r="F9">
-        <v>1.015161388744009</v>
+        <v>0.93849446141634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027278100196354</v>
+        <v>1.034614579152597</v>
       </c>
       <c r="J9">
-        <v>1.023935999045807</v>
+        <v>0.9954322293938861</v>
       </c>
       <c r="K9">
-        <v>1.026347309861923</v>
+        <v>1.007558002636448</v>
       </c>
       <c r="L9">
-        <v>1.024955475080829</v>
+        <v>0.9916409110364093</v>
       </c>
       <c r="M9">
-        <v>1.018393477663505</v>
+        <v>0.9526710134597497</v>
       </c>
       <c r="N9">
-        <v>1.025390105611553</v>
+        <v>0.9968458573372979</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016218555729305</v>
+        <v>0.9585854132769071</v>
       </c>
       <c r="D10">
-        <v>1.021844298989441</v>
+        <v>0.9870936608081957</v>
       </c>
       <c r="E10">
-        <v>1.020027108008343</v>
+        <v>0.9690319475916912</v>
       </c>
       <c r="F10">
-        <v>1.012362927388776</v>
+        <v>0.9231906179086461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026923789409411</v>
+        <v>1.031628823743963</v>
       </c>
       <c r="J10">
-        <v>1.022689969682739</v>
+        <v>0.9885443054904461</v>
       </c>
       <c r="K10">
-        <v>1.025341248522832</v>
+        <v>1.001699919894689</v>
       </c>
       <c r="L10">
-        <v>1.023530763688177</v>
+        <v>0.983983794296338</v>
       </c>
       <c r="M10">
-        <v>1.015895160171292</v>
+        <v>0.9391004966430671</v>
       </c>
       <c r="N10">
-        <v>1.024142306743867</v>
+        <v>0.9899481517918591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01543635461006</v>
+        <v>0.9540068187202889</v>
       </c>
       <c r="D11">
-        <v>1.021280659774086</v>
+        <v>0.9838108482853243</v>
       </c>
       <c r="E11">
-        <v>1.019282056109366</v>
+        <v>0.9649082614743191</v>
       </c>
       <c r="F11">
-        <v>1.011149163759291</v>
+        <v>0.9162323380784827</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026767462239319</v>
+        <v>1.030260634589136</v>
       </c>
       <c r="J11">
-        <v>1.022148499272572</v>
+        <v>0.9854265501650309</v>
       </c>
       <c r="K11">
-        <v>1.024903202053747</v>
+        <v>0.9990446653955857</v>
       </c>
       <c r="L11">
-        <v>1.022912262822874</v>
+        <v>0.9805237528910424</v>
       </c>
       <c r="M11">
-        <v>1.014810906304341</v>
+        <v>0.9329280395857156</v>
       </c>
       <c r="N11">
-        <v>1.023600067383611</v>
+        <v>0.9868259688962705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015145597481999</v>
+        <v>0.9522753184777906</v>
       </c>
       <c r="D12">
-        <v>1.021071051268451</v>
+        <v>0.9825702011710619</v>
       </c>
       <c r="E12">
-        <v>1.01900517239936</v>
+        <v>0.9633502287296932</v>
       </c>
       <c r="F12">
-        <v>1.010698002411044</v>
+        <v>0.9135924660886152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026708957584928</v>
+        <v>1.029740334716407</v>
       </c>
       <c r="J12">
-        <v>1.021947079745868</v>
+        <v>0.984246412302336</v>
       </c>
       <c r="K12">
-        <v>1.02474012705908</v>
+        <v>0.9980391243252902</v>
       </c>
       <c r="L12">
-        <v>1.022682281655575</v>
+        <v>0.9792149554705574</v>
       </c>
       <c r="M12">
-        <v>1.014407783890572</v>
+        <v>0.9305860766627548</v>
       </c>
       <c r="N12">
-        <v>1.023398361818076</v>
+        <v>0.9856441551024469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015207975573957</v>
+        <v>0.9526481692605309</v>
       </c>
       <c r="D13">
-        <v>1.021116024252645</v>
+        <v>0.9828373145486595</v>
       </c>
       <c r="E13">
-        <v>1.019064571209775</v>
+        <v>0.9636856600289343</v>
       </c>
       <c r="F13">
-        <v>1.010794792543279</v>
+        <v>0.9141613243791016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02672152685634</v>
+        <v>1.029852501604418</v>
       </c>
       <c r="J13">
-        <v>1.02199029824142</v>
+        <v>0.9845005849327577</v>
       </c>
       <c r="K13">
-        <v>1.024775123752586</v>
+        <v>0.9982557129751248</v>
       </c>
       <c r="L13">
-        <v>1.022731624419673</v>
+        <v>0.9794967970873358</v>
       </c>
       <c r="M13">
-        <v>1.014494272504565</v>
+        <v>0.9310907472184303</v>
       </c>
       <c r="N13">
-        <v>1.023441641688848</v>
+        <v>0.9858986886871576</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015412324901919</v>
+        <v>0.953864336548544</v>
       </c>
       <c r="D14">
-        <v>1.021263338537194</v>
+        <v>0.983708739835447</v>
       </c>
       <c r="E14">
-        <v>1.019259171656933</v>
+        <v>0.9647800240898408</v>
       </c>
       <c r="F14">
-        <v>1.011111877134837</v>
+        <v>0.9160152870288478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026762635161961</v>
+        <v>1.030217877981505</v>
       </c>
       <c r="J14">
-        <v>1.022131855873252</v>
+        <v>0.9853294606378428</v>
       </c>
       <c r="K14">
-        <v>1.024889729683002</v>
+        <v>0.9989619489354751</v>
       </c>
       <c r="L14">
-        <v>1.022893257472173</v>
+        <v>0.9804160601481983</v>
       </c>
       <c r="M14">
-        <v>1.014777591946156</v>
+        <v>0.9327354864189303</v>
       </c>
       <c r="N14">
-        <v>1.023583400348755</v>
+        <v>0.9867287414908172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015538202936143</v>
+        <v>0.9546094942863169</v>
       </c>
       <c r="D15">
-        <v>1.021354070829119</v>
+        <v>0.9842427843458903</v>
       </c>
       <c r="E15">
-        <v>1.019379052985943</v>
+        <v>0.9654507427579865</v>
       </c>
       <c r="F15">
-        <v>1.011307201210937</v>
+        <v>0.9171500759848642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026787905309557</v>
+        <v>1.030441371040705</v>
       </c>
       <c r="J15">
-        <v>1.022219035242021</v>
+        <v>0.9858371783673349</v>
       </c>
       <c r="K15">
-        <v>1.024960293743576</v>
+        <v>0.9993944858712477</v>
       </c>
       <c r="L15">
-        <v>1.022992812709328</v>
+        <v>0.9809792629180136</v>
       </c>
       <c r="M15">
-        <v>1.014952103398821</v>
+        <v>0.9337421870447893</v>
       </c>
       <c r="N15">
-        <v>1.023670703522227</v>
+        <v>0.9872371802377213</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016270438241133</v>
+        <v>0.9588851049238805</v>
       </c>
       <c r="D16">
-        <v>1.021881671234175</v>
+        <v>0.98730864112955</v>
       </c>
       <c r="E16">
-        <v>1.020076535457969</v>
+        <v>0.9693020564359354</v>
       </c>
       <c r="F16">
-        <v>1.012443437372628</v>
+        <v>0.9236449834781261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026934102983049</v>
+        <v>1.031717974761677</v>
       </c>
       <c r="J16">
-        <v>1.022725864330704</v>
+        <v>0.9887482273523545</v>
       </c>
       <c r="K16">
-        <v>1.025370269153316</v>
+        <v>1.001873522056416</v>
       </c>
       <c r="L16">
-        <v>1.023571777742113</v>
+        <v>0.9842102272059106</v>
       </c>
       <c r="M16">
-        <v>1.015967065572806</v>
+        <v>0.9395035118419053</v>
       </c>
       <c r="N16">
-        <v>1.02417825236635</v>
+        <v>0.9901523632462018</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016729375629221</v>
+        <v>0.9615149951978045</v>
       </c>
       <c r="D17">
-        <v>1.02221218173345</v>
+        <v>0.9891956722567009</v>
       </c>
       <c r="E17">
-        <v>1.020513805278365</v>
+        <v>0.9716733750689333</v>
       </c>
       <c r="F17">
-        <v>1.013155620432739</v>
+        <v>0.9276266927625576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027025029703208</v>
+        <v>1.032498067682734</v>
       </c>
       <c r="J17">
-        <v>1.023043265522063</v>
+        <v>0.990536880490129</v>
       </c>
       <c r="K17">
-        <v>1.025626787741741</v>
+        <v>1.003395830141715</v>
       </c>
       <c r="L17">
-        <v>1.023934518812718</v>
+        <v>0.9861969963279997</v>
       </c>
       <c r="M17">
-        <v>1.016603056053482</v>
+        <v>0.9430349822934445</v>
       </c>
       <c r="N17">
-        <v>1.024496104303807</v>
+        <v>0.9919435564765933</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016996932504097</v>
+        <v>0.9630309863432835</v>
       </c>
       <c r="D18">
-        <v>1.02240480528324</v>
+        <v>0.9902838416709862</v>
       </c>
       <c r="E18">
-        <v>1.020768771125828</v>
+        <v>0.9730411556997429</v>
       </c>
       <c r="F18">
-        <v>1.013570831596617</v>
+        <v>0.9299175673875079</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02707778517471</v>
+        <v>1.032945870994442</v>
       </c>
       <c r="J18">
-        <v>1.023228214121644</v>
+        <v>0.9915672523076948</v>
       </c>
       <c r="K18">
-        <v>1.025776177804769</v>
+        <v>1.004272423112272</v>
       </c>
       <c r="L18">
-        <v>1.024145946218801</v>
+        <v>0.9873420460302101</v>
       </c>
       <c r="M18">
-        <v>1.016973781417454</v>
+        <v>0.9450665900962297</v>
       </c>
       <c r="N18">
-        <v>1.024681315551613</v>
+        <v>0.9929753915403252</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017088139965738</v>
+        <v>0.9635449219477985</v>
       </c>
       <c r="D19">
-        <v>1.022470458261965</v>
+        <v>0.9906528040718886</v>
       </c>
       <c r="E19">
-        <v>1.020855693370622</v>
+        <v>0.973504987108375</v>
       </c>
       <c r="F19">
-        <v>1.013712375509827</v>
+        <v>0.93069349062144</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027095725866878</v>
+        <v>1.033097359079092</v>
       </c>
       <c r="J19">
-        <v>1.023291245334794</v>
+        <v>0.9919164405483532</v>
       </c>
       <c r="K19">
-        <v>1.025827076518193</v>
+        <v>1.004569435176996</v>
       </c>
       <c r="L19">
-        <v>1.024218011593489</v>
+        <v>0.9877301910542751</v>
       </c>
       <c r="M19">
-        <v>1.017100149320524</v>
+        <v>0.9457546582388332</v>
       </c>
       <c r="N19">
-        <v>1.024744436276316</v>
+        <v>0.9933250756683382</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01668014983655</v>
+        <v>0.9612347097438695</v>
       </c>
       <c r="D20">
-        <v>1.022176737405775</v>
+        <v>0.988994516000357</v>
       </c>
       <c r="E20">
-        <v>1.020466899312378</v>
+        <v>0.9714205593134017</v>
       </c>
       <c r="F20">
-        <v>1.013079230009229</v>
+        <v>0.9272027971622856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027015303151424</v>
+        <v>1.032415122320875</v>
       </c>
       <c r="J20">
-        <v>1.02300923065557</v>
+        <v>0.990346323140275</v>
       </c>
       <c r="K20">
-        <v>1.025599289830231</v>
+        <v>1.003233683983368</v>
       </c>
       <c r="L20">
-        <v>1.023895616012773</v>
+        <v>0.9859852749305433</v>
       </c>
       <c r="M20">
-        <v>1.016534844908118</v>
+        <v>0.9426590417363988</v>
       </c>
       <c r="N20">
-        <v>1.024462021103899</v>
+        <v>0.9917527285134451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015352155028124</v>
+        <v>0.9535070778819076</v>
       </c>
       <c r="D21">
-        <v>1.021219965009985</v>
+        <v>0.9834527277691979</v>
       </c>
       <c r="E21">
-        <v>1.01920187052127</v>
+        <v>0.9644585060252908</v>
       </c>
       <c r="F21">
-        <v>1.011018512442314</v>
+        <v>0.9154709143824724</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026750541882425</v>
+        <v>1.030110624312136</v>
       </c>
       <c r="J21">
-        <v>1.022090178800908</v>
+        <v>0.9850860016829983</v>
       </c>
       <c r="K21">
-        <v>1.024855991187196</v>
+        <v>0.9987545242025837</v>
       </c>
       <c r="L21">
-        <v>1.022845667285226</v>
+        <v>0.9801460274644054</v>
       </c>
       <c r="M21">
-        <v>1.014694172079237</v>
+        <v>0.9322525523314625</v>
       </c>
       <c r="N21">
-        <v>1.023541664090187</v>
+        <v>0.9864849367963319</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014515958550587</v>
+        <v>0.9484686738216281</v>
       </c>
       <c r="D22">
-        <v>1.020616969428455</v>
+        <v>0.9798444010054623</v>
       </c>
       <c r="E22">
-        <v>1.018405694966439</v>
+        <v>0.9599276832638877</v>
       </c>
       <c r="F22">
-        <v>1.009721025500846</v>
+        <v>0.9077715854292523</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026581542652239</v>
+        <v>1.028591264851466</v>
       </c>
       <c r="J22">
-        <v>1.021510635862868</v>
+        <v>0.9816499264526536</v>
       </c>
       <c r="K22">
-        <v>1.024386536769869</v>
+        <v>0.9958260051125828</v>
       </c>
       <c r="L22">
-        <v>1.022184118686929</v>
+        <v>0.9763370900362186</v>
       </c>
       <c r="M22">
-        <v>1.013534650523585</v>
+        <v>0.9254218252647823</v>
       </c>
       <c r="N22">
-        <v>1.022961298134701</v>
+        <v>0.9830439819450366</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014959360519822</v>
+        <v>0.9511575944005569</v>
       </c>
       <c r="D23">
-        <v>1.020936765516383</v>
+        <v>0.9817695890741924</v>
       </c>
       <c r="E23">
-        <v>1.018827839897442</v>
+        <v>0.962344896544399</v>
       </c>
       <c r="F23">
-        <v>1.010409026002194</v>
+        <v>0.9118858046431053</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026671372758923</v>
+        <v>1.02940366804839</v>
       </c>
       <c r="J23">
-        <v>1.021818024595841</v>
+        <v>0.9834843005573023</v>
       </c>
       <c r="K23">
-        <v>1.024635604463494</v>
+        <v>0.9973896420440637</v>
       </c>
       <c r="L23">
-        <v>1.022534952329316</v>
+        <v>0.9783700150913885</v>
       </c>
       <c r="M23">
-        <v>1.01414954898898</v>
+        <v>0.9290719662381446</v>
       </c>
       <c r="N23">
-        <v>1.023269123394933</v>
+        <v>0.9848809610713196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016702393265721</v>
+        <v>0.9613614140510692</v>
       </c>
       <c r="D24">
-        <v>1.022192753658774</v>
+        <v>0.9890854483760795</v>
       </c>
       <c r="E24">
-        <v>1.02048809436566</v>
+        <v>0.9715348432095351</v>
       </c>
       <c r="F24">
-        <v>1.013113748149013</v>
+        <v>0.9273944345559654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027019699028321</v>
+        <v>1.032452623988495</v>
       </c>
       <c r="J24">
-        <v>1.023024610121701</v>
+        <v>0.9904324675996947</v>
       </c>
       <c r="K24">
-        <v>1.025611715672304</v>
+        <v>1.003306985802026</v>
       </c>
       <c r="L24">
-        <v>1.023913194987081</v>
+        <v>0.9860809852211264</v>
       </c>
       <c r="M24">
-        <v>1.016565667320153</v>
+        <v>0.9428290000110993</v>
       </c>
       <c r="N24">
-        <v>1.024477422410637</v>
+        <v>0.991838995307878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018719862395134</v>
+        <v>0.9725035218984036</v>
       </c>
       <c r="D25">
-        <v>1.023644081460473</v>
+        <v>0.9970887197375254</v>
       </c>
       <c r="E25">
-        <v>1.022411356472812</v>
+        <v>0.9816018059788995</v>
       </c>
       <c r="F25">
-        <v>1.016244896303837</v>
+        <v>0.9441652116870626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027412909772996</v>
+        <v>1.035709846067728</v>
       </c>
       <c r="J25">
-        <v>1.024417494014399</v>
+        <v>0.9979930578910517</v>
       </c>
       <c r="K25">
-        <v>1.026735309872616</v>
+        <v>1.00973239832323</v>
       </c>
       <c r="L25">
-        <v>1.02550656561123</v>
+        <v>0.9944926064242696</v>
       </c>
       <c r="M25">
-        <v>1.019360177125491</v>
+        <v>0.9576968927269311</v>
       </c>
       <c r="N25">
-        <v>1.025872284358229</v>
+        <v>0.9994103225046608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98090492505639</v>
+        <v>1.028843256148224</v>
       </c>
       <c r="D2">
-        <v>1.003129815668177</v>
+        <v>1.045687496287987</v>
       </c>
       <c r="E2">
-        <v>0.9892155021145805</v>
+        <v>1.036836775231427</v>
       </c>
       <c r="F2">
-        <v>0.9567168519300712</v>
+        <v>1.049329751149748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038105246473831</v>
+        <v>1.062238204899017</v>
       </c>
       <c r="J2">
-        <v>1.003672162670982</v>
+        <v>1.050194212598873</v>
       </c>
       <c r="K2">
-        <v>1.014545718724004</v>
+        <v>1.056545014422316</v>
       </c>
       <c r="L2">
-        <v>1.000827155287154</v>
+        <v>1.047805704358545</v>
       </c>
       <c r="M2">
-        <v>0.9688140425394601</v>
+        <v>1.06014210091032</v>
       </c>
       <c r="N2">
-        <v>1.005097492264781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019583620764048</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.056170662618138</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051052373682058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867561402862033</v>
+        <v>1.033202507002008</v>
       </c>
       <c r="D3">
-        <v>1.00733858578631</v>
+        <v>1.048680230013786</v>
       </c>
       <c r="E3">
-        <v>0.9945302852767562</v>
+        <v>1.040723005483848</v>
       </c>
       <c r="F3">
-        <v>0.9654188893005691</v>
+        <v>1.052309927876593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039737064002707</v>
+        <v>1.063678081459915</v>
       </c>
       <c r="J3">
-        <v>1.007614475085809</v>
+        <v>1.052827216461554</v>
       </c>
       <c r="K3">
-        <v>1.017878421323271</v>
+        <v>1.058725939881004</v>
       </c>
       <c r="L3">
-        <v>1.005233633856777</v>
+        <v>1.050860050556301</v>
       </c>
       <c r="M3">
-        <v>0.9765142363587451</v>
+        <v>1.062314540377709</v>
       </c>
       <c r="N3">
-        <v>1.009045403215427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020558036168165</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057889964526898</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052591808399448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.990436450708334</v>
+        <v>1.035969591896475</v>
       </c>
       <c r="D4">
-        <v>1.009985781365143</v>
+        <v>1.050583939423573</v>
       </c>
       <c r="E4">
-        <v>0.9978784924014074</v>
+        <v>1.043194832050969</v>
       </c>
       <c r="F4">
-        <v>0.9708780215027376</v>
+        <v>1.054208416016454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040746110402561</v>
+        <v>1.064583183118556</v>
       </c>
       <c r="J4">
-        <v>1.010087997662683</v>
+        <v>1.05449589381676</v>
       </c>
       <c r="K4">
-        <v>1.019965162443143</v>
+        <v>1.060107911993127</v>
       </c>
       <c r="L4">
-        <v>1.00800258976942</v>
+        <v>1.052798452769487</v>
       </c>
       <c r="M4">
-        <v>0.9813411125525543</v>
+        <v>1.063693819386012</v>
       </c>
       <c r="N4">
-        <v>1.011522438478077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.02117496900935</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058981545084758</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053569828870025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9919595882032548</v>
+        <v>1.037126245293299</v>
       </c>
       <c r="D5">
-        <v>1.01108124395672</v>
+        <v>1.0513827640644</v>
       </c>
       <c r="E5">
-        <v>0.999265412804524</v>
+        <v>1.044229828401965</v>
       </c>
       <c r="F5">
-        <v>0.9731344492023895</v>
+        <v>1.05500417934417</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041159485487976</v>
+        <v>1.064961266760571</v>
       </c>
       <c r="J5">
-        <v>1.011110201607944</v>
+        <v>1.055194907135238</v>
       </c>
       <c r="K5">
-        <v>1.020826449606412</v>
+        <v>1.060688144948748</v>
       </c>
       <c r="L5">
-        <v>1.009147888737305</v>
+        <v>1.053610239242945</v>
       </c>
       <c r="M5">
-        <v>0.9833352561591359</v>
+        <v>1.064272047126997</v>
       </c>
       <c r="N5">
-        <v>1.012546094070188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021434987436523</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.059439162086988</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053987126611596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9922139535210786</v>
+        <v>1.037326783777922</v>
       </c>
       <c r="D6">
-        <v>1.011264178025912</v>
+        <v>1.051523906895903</v>
       </c>
       <c r="E6">
-        <v>0.9994971006803081</v>
+        <v>1.044410056230323</v>
       </c>
       <c r="F6">
-        <v>0.9735111190187598</v>
+        <v>1.055142965793249</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041228268715583</v>
+        <v>1.065029020982226</v>
       </c>
       <c r="J6">
-        <v>1.011280822239367</v>
+        <v>1.055318692946889</v>
       </c>
       <c r="K6">
-        <v>1.020970146299504</v>
+        <v>1.060792554752047</v>
       </c>
       <c r="L6">
-        <v>1.009339114731472</v>
+        <v>1.053752978515607</v>
       </c>
       <c r="M6">
-        <v>0.9836680849241677</v>
+        <v>1.064374296449438</v>
       </c>
       <c r="N6">
-        <v>1.012716957002478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021483135729772</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05952008351079</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054069532981505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.990456895901926</v>
+        <v>1.036004180392803</v>
       </c>
       <c r="D7">
-        <v>1.010000486401497</v>
+        <v>1.050614773883618</v>
       </c>
       <c r="E7">
-        <v>0.9978971043427127</v>
+        <v>1.043227704833725</v>
       </c>
       <c r="F7">
-        <v>0.9709083204920016</v>
+        <v>1.054234139521651</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040751675997107</v>
+        <v>1.064600774759489</v>
       </c>
       <c r="J7">
-        <v>1.010101724714999</v>
+        <v>1.054523907019626</v>
       </c>
       <c r="K7">
-        <v>1.019976732883289</v>
+        <v>1.060135607424334</v>
       </c>
       <c r="L7">
-        <v>1.008017965875655</v>
+        <v>1.052828132181842</v>
       </c>
       <c r="M7">
-        <v>0.9813678934658385</v>
+        <v>1.063716473549488</v>
       </c>
       <c r="N7">
-        <v>1.011536185024382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021191163268818</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058999473891349</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053609155634128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829050767324892</v>
+        <v>1.030352279498608</v>
       </c>
       <c r="D8">
-        <v>1.004568469811062</v>
+        <v>1.046731322358853</v>
       </c>
       <c r="E8">
-        <v>0.9910311361448226</v>
+        <v>1.038183504004273</v>
       </c>
       <c r="F8">
-        <v>0.9596948740219086</v>
+        <v>1.050362362131291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038666670765846</v>
+        <v>1.06274628378981</v>
       </c>
       <c r="J8">
-        <v>1.005021061286323</v>
+        <v>1.051115223705648</v>
       </c>
       <c r="K8">
-        <v>1.015686911844241</v>
+        <v>1.057313416340443</v>
       </c>
       <c r="L8">
-        <v>1.00233398277919</v>
+        <v>1.048869950645287</v>
       </c>
       <c r="M8">
-        <v>0.9714499735826809</v>
+        <v>1.06090076570465</v>
       </c>
       <c r="N8">
-        <v>1.006448306470877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019932252966004</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.056771082009621</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051618198615671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9687245692788217</v>
+        <v>1.019930253367884</v>
       </c>
       <c r="D9">
-        <v>0.99437296619834</v>
+        <v>1.039593243033352</v>
       </c>
       <c r="E9">
-        <v>0.9781836759982533</v>
+        <v>1.028920029381126</v>
       </c>
       <c r="F9">
-        <v>0.93849446141634</v>
+        <v>1.043276053226712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034614579152597</v>
+        <v>1.059247582727338</v>
       </c>
       <c r="J9">
-        <v>0.9954322293938861</v>
+        <v>1.044798334122278</v>
       </c>
       <c r="K9">
-        <v>1.007558002636448</v>
+        <v>1.052075023900422</v>
       </c>
       <c r="L9">
-        <v>0.9916409110364093</v>
+        <v>1.041560699300875</v>
       </c>
       <c r="M9">
-        <v>0.9526710134597497</v>
+        <v>1.055703966153351</v>
       </c>
       <c r="N9">
-        <v>0.9968458573372979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017584896793196</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.052658242641259</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047911288780628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9585854132769071</v>
+        <v>1.012764162671396</v>
       </c>
       <c r="D10">
-        <v>0.9870936608081957</v>
+        <v>1.034739084853864</v>
       </c>
       <c r="E10">
-        <v>0.9690319475916912</v>
+        <v>1.022591105574952</v>
       </c>
       <c r="F10">
-        <v>0.9231906179086461</v>
+        <v>1.038515548301638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031628823743963</v>
+        <v>1.056828903807642</v>
       </c>
       <c r="J10">
-        <v>0.9885443054904461</v>
+        <v>1.040480350670663</v>
       </c>
       <c r="K10">
-        <v>1.001699919894689</v>
+        <v>1.048508217678806</v>
       </c>
       <c r="L10">
-        <v>0.983983794296338</v>
+        <v>1.036564108600533</v>
       </c>
       <c r="M10">
-        <v>0.9391004966430671</v>
+        <v>1.052222553053854</v>
       </c>
       <c r="N10">
-        <v>0.9899481517918591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01600864098453</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049953709987392</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04540597114506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9540068187202889</v>
+        <v>1.010369582107999</v>
       </c>
       <c r="D11">
-        <v>0.9838108482853243</v>
+        <v>1.033336535551336</v>
       </c>
       <c r="E11">
-        <v>0.9649082614743191</v>
+        <v>1.020567466762259</v>
       </c>
       <c r="F11">
-        <v>0.9162323380784827</v>
+        <v>1.037498392701186</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030260634589136</v>
+        <v>1.056247457483607</v>
       </c>
       <c r="J11">
-        <v>0.9854265501650309</v>
+        <v>1.0393172477813</v>
       </c>
       <c r="K11">
-        <v>0.9990446653955857</v>
+        <v>1.047656015139488</v>
       </c>
       <c r="L11">
-        <v>0.9805237528910424</v>
+        <v>1.035111661666552</v>
       </c>
       <c r="M11">
-        <v>0.9329280395857156</v>
+        <v>1.051746174877096</v>
       </c>
       <c r="N11">
-        <v>0.9868259688962705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015829915301416</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.050007195919411</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044835852771252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9522753184777906</v>
+        <v>1.009740439503196</v>
       </c>
       <c r="D12">
-        <v>0.9825702011710619</v>
+        <v>1.033061906141456</v>
       </c>
       <c r="E12">
-        <v>0.9633502287296932</v>
+        <v>1.020075366684778</v>
       </c>
       <c r="F12">
-        <v>0.9135924660886152</v>
+        <v>1.037495864419588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029740334716407</v>
+        <v>1.056197534736551</v>
       </c>
       <c r="J12">
-        <v>0.984246412302336</v>
+        <v>1.039138211634726</v>
       </c>
       <c r="K12">
-        <v>0.9980391243252902</v>
+        <v>1.047581968559616</v>
       </c>
       <c r="L12">
-        <v>0.9792149554705574</v>
+        <v>1.034827802671579</v>
       </c>
       <c r="M12">
-        <v>0.9305860766627548</v>
+        <v>1.051938312860996</v>
       </c>
       <c r="N12">
-        <v>0.9856441551024469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015953362813151</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.050481649245741</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044783500720615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9526481692605309</v>
+        <v>1.010456674809425</v>
       </c>
       <c r="D13">
-        <v>0.9828373145486595</v>
+        <v>1.033665979745209</v>
       </c>
       <c r="E13">
-        <v>0.9636856600289343</v>
+        <v>1.020755577581104</v>
       </c>
       <c r="F13">
-        <v>0.9141613243791016</v>
+        <v>1.038306314759382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029852501604418</v>
+        <v>1.056576332324473</v>
       </c>
       <c r="J13">
-        <v>0.9845005849327577</v>
+        <v>1.039733960798429</v>
       </c>
       <c r="K13">
-        <v>0.9982557129751248</v>
+        <v>1.048133449804401</v>
       </c>
       <c r="L13">
-        <v>0.9794967970873358</v>
+        <v>1.035452914717423</v>
       </c>
       <c r="M13">
-        <v>0.9310907472184303</v>
+        <v>1.05269297153733</v>
       </c>
       <c r="N13">
-        <v>0.9858986886871576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016335609364186</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.051352040711682</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045170946979436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.953864336548544</v>
+        <v>1.011565189059712</v>
       </c>
       <c r="D14">
-        <v>0.983708739835447</v>
+        <v>1.03448545416301</v>
       </c>
       <c r="E14">
-        <v>0.9647800240898408</v>
+        <v>1.021760625343897</v>
       </c>
       <c r="F14">
-        <v>0.9160152870288478</v>
+        <v>1.039239834607503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030217877981505</v>
+        <v>1.057034212092259</v>
       </c>
       <c r="J14">
-        <v>0.9853294606378428</v>
+        <v>1.040499612115006</v>
       </c>
       <c r="K14">
-        <v>0.9989619489354751</v>
+        <v>1.048801222446604</v>
       </c>
       <c r="L14">
-        <v>0.9804160601481983</v>
+        <v>1.036299960409492</v>
       </c>
       <c r="M14">
-        <v>0.9327354864189303</v>
+        <v>1.053473886618342</v>
       </c>
       <c r="N14">
-        <v>0.9867287414908172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016718887092972</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.052141021887499</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045644477685496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546094942863169</v>
+        <v>1.012139000536776</v>
       </c>
       <c r="D15">
-        <v>0.9842427843458903</v>
+        <v>1.034889480337372</v>
       </c>
       <c r="E15">
-        <v>0.9654507427579865</v>
+        <v>1.02227228190964</v>
       </c>
       <c r="F15">
-        <v>0.9171500759848642</v>
+        <v>1.039663015912342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030441371040705</v>
+        <v>1.057247884647847</v>
       </c>
       <c r="J15">
-        <v>0.9858371783673349</v>
+        <v>1.040867270408211</v>
       </c>
       <c r="K15">
-        <v>0.9993944858712477</v>
+        <v>1.049113674135952</v>
       </c>
       <c r="L15">
-        <v>0.9809792629180136</v>
+        <v>1.036716388158284</v>
       </c>
       <c r="M15">
-        <v>0.9337421870447893</v>
+        <v>1.053805805351473</v>
       </c>
       <c r="N15">
-        <v>0.9872371802377213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016875897607549</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.052440582346797</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045871175098456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9588851049238805</v>
+        <v>1.015041526950633</v>
       </c>
       <c r="D16">
-        <v>0.98730864112955</v>
+        <v>1.036838311844827</v>
       </c>
       <c r="E16">
-        <v>0.9693020564359354</v>
+        <v>1.024822917741201</v>
       </c>
       <c r="F16">
-        <v>0.9236449834781261</v>
+        <v>1.041556990800307</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031717974761677</v>
+        <v>1.058220149960497</v>
       </c>
       <c r="J16">
-        <v>0.9887482273523545</v>
+        <v>1.042595899043127</v>
       </c>
       <c r="K16">
-        <v>1.001873522056416</v>
+        <v>1.050538016374621</v>
       </c>
       <c r="L16">
-        <v>0.9842102272059106</v>
+        <v>1.03872259256551</v>
       </c>
       <c r="M16">
-        <v>0.9395035118419053</v>
+        <v>1.055179783314022</v>
       </c>
       <c r="N16">
-        <v>0.9901523632462018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017474190179554</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.053488218032795</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046881327082508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9615149951978045</v>
+        <v>1.016690766815878</v>
       </c>
       <c r="D17">
-        <v>0.9891956722567009</v>
+        <v>1.037906902366367</v>
       </c>
       <c r="E17">
-        <v>0.9716733750689333</v>
+        <v>1.026257437156276</v>
       </c>
       <c r="F17">
-        <v>0.9276266927625576</v>
+        <v>1.042518183359437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032498067682734</v>
+        <v>1.058724740711485</v>
       </c>
       <c r="J17">
-        <v>0.990536880490129</v>
+        <v>1.043522316024871</v>
       </c>
       <c r="K17">
-        <v>1.003395830141715</v>
+        <v>1.051281401158775</v>
       </c>
       <c r="L17">
-        <v>0.9861969963279997</v>
+        <v>1.039820225865733</v>
       </c>
       <c r="M17">
-        <v>0.9430349822934445</v>
+        <v>1.055819638140047</v>
       </c>
       <c r="N17">
-        <v>0.9919435564765933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017733641425403</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.053866212326021</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047409461181418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9630309863432835</v>
+        <v>1.017386171724293</v>
       </c>
       <c r="D18">
-        <v>0.9902838416709862</v>
+        <v>1.03827896623346</v>
       </c>
       <c r="E18">
-        <v>0.9730411556997429</v>
+        <v>1.02683151690461</v>
       </c>
       <c r="F18">
-        <v>0.9299175673875079</v>
+        <v>1.042708093628732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032945870994442</v>
+        <v>1.0588494940195</v>
       </c>
       <c r="J18">
-        <v>0.9915672523076948</v>
+        <v>1.043808067602355</v>
       </c>
       <c r="K18">
-        <v>1.004272423112272</v>
+        <v>1.051468122265487</v>
       </c>
       <c r="L18">
-        <v>0.9873420460302101</v>
+        <v>1.040202636367226</v>
       </c>
       <c r="M18">
-        <v>0.9450665900962297</v>
+        <v>1.055828215864964</v>
       </c>
       <c r="N18">
-        <v>0.9929753915403252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017701454266381</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.053637955655068</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047530010700676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9635449219477985</v>
+        <v>1.017234048608136</v>
       </c>
       <c r="D19">
-        <v>0.9906528040718886</v>
+        <v>1.03803749565279</v>
       </c>
       <c r="E19">
-        <v>0.973504987108375</v>
+        <v>1.026641780141399</v>
       </c>
       <c r="F19">
-        <v>0.93069349062144</v>
+        <v>1.042206329927757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033097359079092</v>
+        <v>1.058642267529541</v>
       </c>
       <c r="J19">
-        <v>0.9919164405483532</v>
+        <v>1.043530502057498</v>
       </c>
       <c r="K19">
-        <v>1.004569435176996</v>
+        <v>1.0511692354102</v>
       </c>
       <c r="L19">
-        <v>0.9877301910542751</v>
+        <v>1.039953793815692</v>
       </c>
       <c r="M19">
-        <v>0.9457546582388332</v>
+        <v>1.055273378765581</v>
       </c>
       <c r="N19">
-        <v>0.9933250756683382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017426803306529</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.052877840209928</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047324995810349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9612347097438695</v>
+        <v>1.014679208633786</v>
       </c>
       <c r="D20">
-        <v>0.988994516000357</v>
+        <v>1.036053555849259</v>
       </c>
       <c r="E20">
-        <v>0.9714205593134017</v>
+        <v>1.024286308755082</v>
       </c>
       <c r="F20">
-        <v>0.9272027971622856</v>
+        <v>1.039793680492516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032415122320875</v>
+        <v>1.057495596307201</v>
       </c>
       <c r="J20">
-        <v>0.990346323140275</v>
+        <v>1.041655767865546</v>
       </c>
       <c r="K20">
-        <v>1.003233683983368</v>
+        <v>1.049490748054148</v>
       </c>
       <c r="L20">
-        <v>0.9859852749305433</v>
+        <v>1.037915144802075</v>
       </c>
       <c r="M20">
-        <v>0.9426590417363988</v>
+        <v>1.053171124269148</v>
       </c>
       <c r="N20">
-        <v>0.9917527285134451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016456994048901</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050693988752089</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046142146856537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9535070778819076</v>
+        <v>1.009133032539473</v>
       </c>
       <c r="D21">
-        <v>0.9834527277691979</v>
+        <v>1.032262467621559</v>
       </c>
       <c r="E21">
-        <v>0.9644585060252908</v>
+        <v>1.019382240154194</v>
       </c>
       <c r="F21">
-        <v>0.9154709143824724</v>
+        <v>1.036013380258389</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030110624312136</v>
+        <v>1.055560964896169</v>
       </c>
       <c r="J21">
-        <v>0.9850860016829983</v>
+        <v>1.038253806808203</v>
       </c>
       <c r="K21">
-        <v>0.9987545242025837</v>
+        <v>1.046657354390475</v>
       </c>
       <c r="L21">
-        <v>0.9801460274644054</v>
+        <v>1.034005484553635</v>
       </c>
       <c r="M21">
-        <v>0.9322525523314625</v>
+        <v>1.050343146842254</v>
       </c>
       <c r="N21">
-        <v>0.9864849367963319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015167531540843</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048415571588562</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.044142079367732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9484686738216281</v>
+        <v>1.005593746071132</v>
       </c>
       <c r="D22">
-        <v>0.9798444010054623</v>
+        <v>1.029855516565817</v>
       </c>
       <c r="E22">
-        <v>0.9599276832638877</v>
+        <v>1.016262543630847</v>
       </c>
       <c r="F22">
-        <v>0.9077715854292523</v>
+        <v>1.033644515902177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028591264851466</v>
+        <v>1.054325844457379</v>
       </c>
       <c r="J22">
-        <v>0.9816499264526536</v>
+        <v>1.036090372232126</v>
       </c>
       <c r="K22">
-        <v>0.9958260051125828</v>
+        <v>1.044857857907682</v>
       </c>
       <c r="L22">
-        <v>0.9763370900362186</v>
+        <v>1.031518576814169</v>
       </c>
       <c r="M22">
-        <v>0.9254218252647823</v>
+        <v>1.048577688496811</v>
       </c>
       <c r="N22">
-        <v>0.9830439819450366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01435354438126</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047018343485973</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042856451710596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511575944005569</v>
+        <v>1.007457612562807</v>
       </c>
       <c r="D23">
-        <v>0.9817695890741924</v>
+        <v>1.031115956715261</v>
       </c>
       <c r="E23">
-        <v>0.962344896544399</v>
+        <v>1.017902626428373</v>
       </c>
       <c r="F23">
-        <v>0.9118858046431053</v>
+        <v>1.034889214751514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02940366804839</v>
+        <v>1.054971481849598</v>
       </c>
       <c r="J23">
-        <v>0.9834843005573023</v>
+        <v>1.037222890105698</v>
       </c>
       <c r="K23">
-        <v>0.9973896420440637</v>
+        <v>1.045796072921819</v>
       </c>
       <c r="L23">
-        <v>0.9783700150913885</v>
+        <v>1.032822781863121</v>
       </c>
       <c r="M23">
-        <v>0.9290719662381446</v>
+        <v>1.049502243636072</v>
       </c>
       <c r="N23">
-        <v>0.9848809610713196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014773022555861</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047750059987371</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043510272997775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9613614140510692</v>
+        <v>1.014664648576613</v>
       </c>
       <c r="D24">
-        <v>0.9890854483760795</v>
+        <v>1.036013281423389</v>
       </c>
       <c r="E24">
-        <v>0.9715348432095351</v>
+        <v>1.024262263843635</v>
       </c>
       <c r="F24">
-        <v>0.9273944345559654</v>
+        <v>1.039725286333498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032452623988495</v>
+        <v>1.05745938503117</v>
       </c>
       <c r="J24">
-        <v>0.9904324675996947</v>
+        <v>1.041609651064477</v>
       </c>
       <c r="K24">
-        <v>1.003306985802026</v>
+        <v>1.049436162356306</v>
       </c>
       <c r="L24">
-        <v>0.9860809852211264</v>
+        <v>1.037876294987347</v>
       </c>
       <c r="M24">
-        <v>0.9428290000110993</v>
+        <v>1.053088935733628</v>
       </c>
       <c r="N24">
-        <v>0.991838995307878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016408099543238</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.050588652697313</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046076520458808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9725035218984036</v>
+        <v>1.022710963870403</v>
       </c>
       <c r="D25">
-        <v>0.9970887197375254</v>
+        <v>1.041504498054342</v>
       </c>
       <c r="E25">
-        <v>0.9816018059788995</v>
+        <v>1.031389922108535</v>
       </c>
       <c r="F25">
-        <v>0.9441652116870626</v>
+        <v>1.045162887634825</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035709846067728</v>
+        <v>1.060198732181862</v>
       </c>
       <c r="J25">
-        <v>0.9979930578910517</v>
+        <v>1.046497462689061</v>
       </c>
       <c r="K25">
-        <v>1.00973239832323</v>
+        <v>1.053490949562211</v>
       </c>
       <c r="L25">
-        <v>0.9944926064242696</v>
+        <v>1.043519736762506</v>
       </c>
       <c r="M25">
-        <v>0.9576968927269311</v>
+        <v>1.057098347487442</v>
       </c>
       <c r="N25">
-        <v>0.9994103225046608</v>
+        <v>1.018227121209326</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.053761782959433</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.048940559255733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028843256148224</v>
+        <v>1.026529895382458</v>
       </c>
       <c r="D2">
-        <v>1.045687496287987</v>
+        <v>1.04271954634687</v>
       </c>
       <c r="E2">
-        <v>1.036836775231427</v>
+        <v>1.034537103190724</v>
       </c>
       <c r="F2">
-        <v>1.049329751149748</v>
+        <v>1.047189321844765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062238204899017</v>
+        <v>1.060515161897437</v>
       </c>
       <c r="J2">
-        <v>1.050194212598873</v>
+        <v>1.047945055845192</v>
       </c>
       <c r="K2">
-        <v>1.056545014422316</v>
+        <v>1.053614161570538</v>
       </c>
       <c r="L2">
-        <v>1.047805704358545</v>
+        <v>1.045535369960014</v>
       </c>
       <c r="M2">
-        <v>1.06014210091032</v>
+        <v>1.058028168111786</v>
       </c>
       <c r="N2">
-        <v>1.019583620764048</v>
+        <v>1.019311354070809</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056170662618138</v>
+        <v>1.054497660064245</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051052373682058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048988706611291</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025934718654646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033202507002008</v>
+        <v>1.030601643588244</v>
       </c>
       <c r="D3">
-        <v>1.048680230013786</v>
+        <v>1.045408969335366</v>
       </c>
       <c r="E3">
-        <v>1.040723005483848</v>
+        <v>1.038134839197352</v>
       </c>
       <c r="F3">
-        <v>1.052309927876593</v>
+        <v>1.049942743656097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063678081459915</v>
+        <v>1.061763691994628</v>
       </c>
       <c r="J3">
-        <v>1.052827216461554</v>
+        <v>1.050291469369423</v>
       </c>
       <c r="K3">
-        <v>1.058725939881004</v>
+        <v>1.055492019889514</v>
       </c>
       <c r="L3">
-        <v>1.050860050556301</v>
+        <v>1.048301965074143</v>
       </c>
       <c r="M3">
-        <v>1.062314540377709</v>
+        <v>1.059974118942903</v>
       </c>
       <c r="N3">
-        <v>1.020558036168165</v>
+        <v>1.019980574392956</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057889964526898</v>
+        <v>1.056037718952016</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052591808399448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050313577571266</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026362563244698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035969591896475</v>
+        <v>1.033188788670378</v>
       </c>
       <c r="D4">
-        <v>1.050583939423573</v>
+        <v>1.047121828555778</v>
       </c>
       <c r="E4">
-        <v>1.043194832050969</v>
+        <v>1.040425845760665</v>
       </c>
       <c r="F4">
-        <v>1.054208416016454</v>
+        <v>1.051698802011604</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064583183118556</v>
+        <v>1.062548276306104</v>
       </c>
       <c r="J4">
-        <v>1.05449589381676</v>
+        <v>1.051780005950639</v>
       </c>
       <c r="K4">
-        <v>1.060107911993127</v>
+        <v>1.056682948114531</v>
       </c>
       <c r="L4">
-        <v>1.052798452769487</v>
+        <v>1.050059671503983</v>
       </c>
       <c r="M4">
-        <v>1.063693819386012</v>
+        <v>1.061210876317277</v>
       </c>
       <c r="N4">
-        <v>1.02117496900935</v>
+        <v>1.020405116034783</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058981545084758</v>
+        <v>1.057016508347651</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053569828870025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051156602265388</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026631539827261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037126245293299</v>
+        <v>1.034270266712844</v>
       </c>
       <c r="D5">
-        <v>1.0513827640644</v>
+        <v>1.047840934805897</v>
       </c>
       <c r="E5">
-        <v>1.044229828401965</v>
+        <v>1.041385251109795</v>
       </c>
       <c r="F5">
-        <v>1.05500417934417</v>
+        <v>1.052435083590883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064961266760571</v>
+        <v>1.062875939743407</v>
       </c>
       <c r="J5">
-        <v>1.055194907135238</v>
+        <v>1.052403609312386</v>
       </c>
       <c r="K5">
-        <v>1.060688144948748</v>
+        <v>1.057183310857509</v>
       </c>
       <c r="L5">
-        <v>1.053610239242945</v>
+        <v>1.050795850438625</v>
       </c>
       <c r="M5">
-        <v>1.064272047126997</v>
+        <v>1.061729531347294</v>
       </c>
       <c r="N5">
-        <v>1.021434987436523</v>
+        <v>1.020584054189897</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059439162086988</v>
+        <v>1.057426979789073</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053987126611596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051518143040277</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026745023339955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037326783777922</v>
+        <v>1.034457142127224</v>
       </c>
       <c r="D6">
-        <v>1.051523906895903</v>
+        <v>1.047967875555681</v>
       </c>
       <c r="E6">
-        <v>1.044410056230323</v>
+        <v>1.041551747414822</v>
       </c>
       <c r="F6">
-        <v>1.055142965793249</v>
+        <v>1.052563220856303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065029020982226</v>
+        <v>1.062934646760655</v>
       </c>
       <c r="J6">
-        <v>1.055318692946889</v>
+        <v>1.052513707270483</v>
       </c>
       <c r="K6">
-        <v>1.060792554752047</v>
+        <v>1.057273497323236</v>
       </c>
       <c r="L6">
-        <v>1.053752978515607</v>
+        <v>1.050924862317576</v>
       </c>
       <c r="M6">
-        <v>1.064374296449438</v>
+        <v>1.061821119989857</v>
       </c>
       <c r="N6">
-        <v>1.021483135729772</v>
+        <v>1.02061696468098</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05952008351079</v>
+        <v>1.057499464404282</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054069532981505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051591367079906</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026766715525276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036004180392803</v>
+        <v>1.033229857554409</v>
       </c>
       <c r="D7">
-        <v>1.050614773883618</v>
+        <v>1.047157028445509</v>
       </c>
       <c r="E7">
-        <v>1.043227704833725</v>
+        <v>1.040465160340703</v>
       </c>
       <c r="F7">
-        <v>1.054234139521651</v>
+        <v>1.051728262121792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064600774759489</v>
+        <v>1.062569168872962</v>
       </c>
       <c r="J7">
-        <v>1.054523907019626</v>
+        <v>1.05181431844995</v>
       </c>
       <c r="K7">
-        <v>1.060135607424334</v>
+        <v>1.056714946966138</v>
       </c>
       <c r="L7">
-        <v>1.052828132181842</v>
+        <v>1.050095709865548</v>
       </c>
       <c r="M7">
-        <v>1.063716473549488</v>
+        <v>1.061237216840972</v>
       </c>
       <c r="N7">
-        <v>1.021191163268818</v>
+        <v>1.020445946297707</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058999473891349</v>
+        <v>1.057037354642114</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053609155634128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051200982737598</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02664392318361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030352279498608</v>
+        <v>1.027968965116909</v>
       </c>
       <c r="D8">
-        <v>1.046731322358853</v>
+        <v>1.043680899372965</v>
       </c>
       <c r="E8">
-        <v>1.038183504004273</v>
+        <v>1.035813436755699</v>
       </c>
       <c r="F8">
-        <v>1.050362362131291</v>
+        <v>1.048161922846595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.06274628378981</v>
+        <v>1.060973175310056</v>
       </c>
       <c r="J8">
-        <v>1.051115223705648</v>
+        <v>1.048795826336276</v>
       </c>
       <c r="K8">
-        <v>1.057313416340443</v>
+        <v>1.054299989469451</v>
       </c>
       <c r="L8">
-        <v>1.048869950645287</v>
+        <v>1.046529197166537</v>
       </c>
       <c r="M8">
-        <v>1.06090076570465</v>
+        <v>1.058726758305334</v>
       </c>
       <c r="N8">
-        <v>1.019932252966004</v>
+        <v>1.019642500279314</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056771082009621</v>
+        <v>1.055050536692946</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051618198615671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049498425376871</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026101296869911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019930253367884</v>
+        <v>1.018257636665668</v>
       </c>
       <c r="D9">
-        <v>1.039593243033352</v>
+        <v>1.037283709766915</v>
       </c>
       <c r="E9">
-        <v>1.028920029381126</v>
+        <v>1.027261092956532</v>
       </c>
       <c r="F9">
-        <v>1.043276053226712</v>
+        <v>1.041631546480682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059247582727338</v>
+        <v>1.057941567690507</v>
       </c>
       <c r="J9">
-        <v>1.044798334122278</v>
+        <v>1.043181744389634</v>
       </c>
       <c r="K9">
-        <v>1.052075023900422</v>
+        <v>1.049799519772682</v>
       </c>
       <c r="L9">
-        <v>1.041560699300875</v>
+        <v>1.039926836686894</v>
       </c>
       <c r="M9">
-        <v>1.055703966153351</v>
+        <v>1.05408345364469</v>
       </c>
       <c r="N9">
-        <v>1.017584896793196</v>
+        <v>1.018048361869914</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.052658242641259</v>
+        <v>1.051375735712344</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047911288780628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046312982031433</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025060044194372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012764162671396</v>
+        <v>1.011628611946065</v>
       </c>
       <c r="D10">
-        <v>1.034739084853864</v>
+        <v>1.032973052018958</v>
       </c>
       <c r="E10">
-        <v>1.022591105574952</v>
+        <v>1.021467086682592</v>
       </c>
       <c r="F10">
-        <v>1.038515548301638</v>
+        <v>1.03728254532875</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056828903807642</v>
+        <v>1.055866923836241</v>
       </c>
       <c r="J10">
-        <v>1.040480350670663</v>
+        <v>1.039388335700459</v>
       </c>
       <c r="K10">
-        <v>1.048508217678806</v>
+        <v>1.046771439258907</v>
       </c>
       <c r="L10">
-        <v>1.036564108600533</v>
+        <v>1.035459269880012</v>
       </c>
       <c r="M10">
-        <v>1.052222553053854</v>
+        <v>1.051009770728439</v>
       </c>
       <c r="N10">
-        <v>1.01600864098453</v>
+        <v>1.017108324421425</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049953709987392</v>
+        <v>1.048993944118955</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04540597114506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044190254162651</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024371172958637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010369582107999</v>
+        <v>1.009361608326847</v>
       </c>
       <c r="D11">
-        <v>1.033336535551336</v>
+        <v>1.031707506743129</v>
       </c>
       <c r="E11">
-        <v>1.020567466762259</v>
+        <v>1.019570618940995</v>
       </c>
       <c r="F11">
-        <v>1.037498392701186</v>
+        <v>1.036369046106966</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056247457483607</v>
+        <v>1.055370633361115</v>
       </c>
       <c r="J11">
-        <v>1.0393172477813</v>
+        <v>1.038350053539314</v>
       </c>
       <c r="K11">
-        <v>1.047656015139488</v>
+        <v>1.046055253942766</v>
       </c>
       <c r="L11">
-        <v>1.035111661666552</v>
+        <v>1.034132664470963</v>
       </c>
       <c r="M11">
-        <v>1.051746174877096</v>
+        <v>1.050636210240952</v>
       </c>
       <c r="N11">
-        <v>1.015829915301416</v>
+        <v>1.0171970635271</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050007195919411</v>
+        <v>1.049129227929583</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044835852771252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043719524125124</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024335744567153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009740439503196</v>
+        <v>1.008716766848832</v>
       </c>
       <c r="D12">
-        <v>1.033061906141456</v>
+        <v>1.031428553120624</v>
       </c>
       <c r="E12">
-        <v>1.020075366684778</v>
+        <v>1.019063325635678</v>
       </c>
       <c r="F12">
-        <v>1.037495864419588</v>
+        <v>1.036362093969344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056197534736551</v>
+        <v>1.05531578930911</v>
       </c>
       <c r="J12">
-        <v>1.039138211634726</v>
+        <v>1.03815674472088</v>
       </c>
       <c r="K12">
-        <v>1.047581968559616</v>
+        <v>1.04597742459326</v>
       </c>
       <c r="L12">
-        <v>1.034827802671579</v>
+        <v>1.033834194271717</v>
       </c>
       <c r="M12">
-        <v>1.051938312860996</v>
+        <v>1.050824306588076</v>
       </c>
       <c r="N12">
-        <v>1.015953362813151</v>
+        <v>1.017352648517188</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050481649245741</v>
+        <v>1.049600775724015</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044783500720615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043664498573744</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024406496199177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010456674809425</v>
+        <v>1.009287084861473</v>
       </c>
       <c r="D13">
-        <v>1.033665979745209</v>
+        <v>1.03190536335298</v>
       </c>
       <c r="E13">
-        <v>1.020755577581104</v>
+        <v>1.019599166640211</v>
       </c>
       <c r="F13">
-        <v>1.038306314759382</v>
+        <v>1.037073276436089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056576332324473</v>
+        <v>1.055610082884932</v>
       </c>
       <c r="J13">
-        <v>1.039733960798429</v>
+        <v>1.038612329869299</v>
       </c>
       <c r="K13">
-        <v>1.048133449804401</v>
+        <v>1.046403741783364</v>
       </c>
       <c r="L13">
-        <v>1.035452914717423</v>
+        <v>1.034317462968144</v>
       </c>
       <c r="M13">
-        <v>1.05269297153733</v>
+        <v>1.05148131575148</v>
       </c>
       <c r="N13">
-        <v>1.016335609364186</v>
+        <v>1.017543379559674</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051352040711682</v>
+        <v>1.050394189092417</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045170946979436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043963203634268</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024572482856005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011565189059712</v>
+        <v>1.010237387845059</v>
       </c>
       <c r="D14">
-        <v>1.03448545416301</v>
+        <v>1.032582776591176</v>
       </c>
       <c r="E14">
-        <v>1.021760625343897</v>
+        <v>1.020447446949568</v>
       </c>
       <c r="F14">
-        <v>1.039239834607503</v>
+        <v>1.037896499659584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057034212092259</v>
+        <v>1.055974451705423</v>
       </c>
       <c r="J14">
-        <v>1.040499612115006</v>
+        <v>1.039225450050116</v>
       </c>
       <c r="K14">
-        <v>1.048801222446604</v>
+        <v>1.046931520174265</v>
       </c>
       <c r="L14">
-        <v>1.036299960409492</v>
+        <v>1.035010265943628</v>
       </c>
       <c r="M14">
-        <v>1.053473886618342</v>
+        <v>1.052153542275321</v>
       </c>
       <c r="N14">
-        <v>1.016718887092972</v>
+        <v>1.017695265242252</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052141021887499</v>
+        <v>1.051097387169425</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045644477685496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04433788878935</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024732816678443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012139000536776</v>
+        <v>1.010743576123882</v>
       </c>
       <c r="D15">
-        <v>1.034889480337372</v>
+        <v>1.032924794176936</v>
       </c>
       <c r="E15">
-        <v>1.02227228190964</v>
+        <v>1.020892013790759</v>
       </c>
       <c r="F15">
-        <v>1.039663015912342</v>
+        <v>1.038271698028215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057247884647847</v>
+        <v>1.056147543117053</v>
       </c>
       <c r="J15">
-        <v>1.040867270408211</v>
+        <v>1.039527712357846</v>
       </c>
       <c r="K15">
-        <v>1.049113674135952</v>
+        <v>1.047182774927126</v>
       </c>
       <c r="L15">
-        <v>1.036716388158284</v>
+        <v>1.035360605580672</v>
       </c>
       <c r="M15">
-        <v>1.053805805351473</v>
+        <v>1.05243811417887</v>
       </c>
       <c r="N15">
-        <v>1.016875897607549</v>
+        <v>1.017748462488879</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052440582346797</v>
+        <v>1.051359551507259</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045871175098456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044521889080026</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024798208310397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015041526950633</v>
+        <v>1.01337834236297</v>
       </c>
       <c r="D16">
-        <v>1.036838311844827</v>
+        <v>1.034617843587635</v>
       </c>
       <c r="E16">
-        <v>1.024822917741201</v>
+        <v>1.023176392063727</v>
       </c>
       <c r="F16">
-        <v>1.041556990800307</v>
+        <v>1.039969275184678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058220149960497</v>
+        <v>1.056954393799603</v>
       </c>
       <c r="J16">
-        <v>1.042595899043127</v>
+        <v>1.040995920384316</v>
       </c>
       <c r="K16">
-        <v>1.050538016374621</v>
+        <v>1.048354052891265</v>
       </c>
       <c r="L16">
-        <v>1.03872259256551</v>
+        <v>1.037103942039365</v>
       </c>
       <c r="M16">
-        <v>1.055179783314022</v>
+        <v>1.053617846551549</v>
       </c>
       <c r="N16">
-        <v>1.017474190179554</v>
+        <v>1.017926384147188</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053488218032795</v>
+        <v>1.052253619386389</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046881327082508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045353418453041</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02504725736445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016690766815878</v>
+        <v>1.014915521951034</v>
       </c>
       <c r="D17">
-        <v>1.037906902366367</v>
+        <v>1.035571777970245</v>
       </c>
       <c r="E17">
-        <v>1.026257437156276</v>
+        <v>1.024499070942803</v>
       </c>
       <c r="F17">
-        <v>1.042518183359437</v>
+        <v>1.040843586104673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058724740711485</v>
+        <v>1.057386346110577</v>
       </c>
       <c r="J17">
-        <v>1.043522316024871</v>
+        <v>1.041812343988895</v>
       </c>
       <c r="K17">
-        <v>1.051281401158775</v>
+        <v>1.04898358396323</v>
       </c>
       <c r="L17">
-        <v>1.039820225865733</v>
+        <v>1.038090758525958</v>
       </c>
       <c r="M17">
-        <v>1.055819638140047</v>
+        <v>1.054171471153809</v>
       </c>
       <c r="N17">
-        <v>1.017733641425403</v>
+        <v>1.018014029509</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.053866212326021</v>
+        <v>1.052563327057562</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047409461181418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045801303470651</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025156208147443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017386171724293</v>
+        <v>1.015614508725565</v>
       </c>
       <c r="D18">
-        <v>1.03827896623346</v>
+        <v>1.035935137419607</v>
       </c>
       <c r="E18">
-        <v>1.02683151690461</v>
+        <v>1.025076199069572</v>
       </c>
       <c r="F18">
-        <v>1.042708093628732</v>
+        <v>1.041028377980807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0588494940195</v>
+        <v>1.057507948751193</v>
       </c>
       <c r="J18">
-        <v>1.043808067602355</v>
+        <v>1.042100326017823</v>
       </c>
       <c r="K18">
-        <v>1.051468122265487</v>
+        <v>1.049161130812743</v>
       </c>
       <c r="L18">
-        <v>1.040202636367226</v>
+        <v>1.038475681640498</v>
       </c>
       <c r="M18">
-        <v>1.055828215864964</v>
+        <v>1.054174592427967</v>
       </c>
       <c r="N18">
-        <v>1.017701454266381</v>
+        <v>1.017975952728086</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053637955655068</v>
+        <v>1.052330490042211</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047530010700676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045914226335748</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025135911822251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017234048608136</v>
+        <v>1.015558622540857</v>
       </c>
       <c r="D19">
-        <v>1.03803749565279</v>
+        <v>1.035772460448546</v>
       </c>
       <c r="E19">
-        <v>1.026641780141399</v>
+        <v>1.024981674708519</v>
       </c>
       <c r="F19">
-        <v>1.042206329927757</v>
+        <v>1.040588496007088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058642267529541</v>
+        <v>1.057354388791324</v>
       </c>
       <c r="J19">
-        <v>1.043530502057498</v>
+        <v>1.04191519052328</v>
       </c>
       <c r="K19">
-        <v>1.0511692354102</v>
+        <v>1.048939627731607</v>
       </c>
       <c r="L19">
-        <v>1.039953793815692</v>
+        <v>1.038320379548063</v>
       </c>
       <c r="M19">
-        <v>1.055273378765581</v>
+        <v>1.053680571360606</v>
       </c>
       <c r="N19">
-        <v>1.017426803306529</v>
+        <v>1.017815378272938</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.052877840209928</v>
+        <v>1.051618058153465</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047324995810349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045764550839775</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025005687738753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014679208633786</v>
+        <v>1.013361938248259</v>
       </c>
       <c r="D20">
-        <v>1.036053555849259</v>
+        <v>1.034114162409898</v>
       </c>
       <c r="E20">
-        <v>1.024286308755082</v>
+        <v>1.022981723213479</v>
       </c>
       <c r="F20">
-        <v>1.039793680492516</v>
+        <v>1.038427347103385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057495596307201</v>
+        <v>1.056421616650575</v>
       </c>
       <c r="J20">
-        <v>1.041655767865546</v>
+        <v>1.040387322182957</v>
       </c>
       <c r="K20">
-        <v>1.049490748054148</v>
+        <v>1.047582554750342</v>
       </c>
       <c r="L20">
-        <v>1.037915144802075</v>
+        <v>1.036632155526065</v>
       </c>
       <c r="M20">
-        <v>1.053171124269148</v>
+        <v>1.051826554079319</v>
       </c>
       <c r="N20">
-        <v>1.016456994048901</v>
+        <v>1.017293972221147</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050693988752089</v>
+        <v>1.049629916929604</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046142146856537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04480934173968</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024561490182562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009133032539473</v>
+        <v>1.008409768795712</v>
       </c>
       <c r="D21">
-        <v>1.032262467621559</v>
+        <v>1.03087952314333</v>
       </c>
       <c r="E21">
-        <v>1.019382240154194</v>
+        <v>1.018667059139122</v>
       </c>
       <c r="F21">
-        <v>1.036013380258389</v>
+        <v>1.035077059580263</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055560964896169</v>
+        <v>1.054848442067377</v>
       </c>
       <c r="J21">
-        <v>1.038253806808203</v>
+        <v>1.037560040944405</v>
       </c>
       <c r="K21">
-        <v>1.046657354390475</v>
+        <v>1.045298574324694</v>
       </c>
       <c r="L21">
-        <v>1.034005484553635</v>
+        <v>1.033303203214346</v>
       </c>
       <c r="M21">
-        <v>1.050343146842254</v>
+        <v>1.049423024581739</v>
       </c>
       <c r="N21">
-        <v>1.015167531540843</v>
+        <v>1.016928496654582</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048415571588562</v>
+        <v>1.047687364037079</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044142079367732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043198053294248</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024042965548527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005593746071132</v>
+        <v>1.00524864245135</v>
       </c>
       <c r="D22">
-        <v>1.029855516565817</v>
+        <v>1.028826880044406</v>
       </c>
       <c r="E22">
-        <v>1.016262543630847</v>
+        <v>1.015921651779177</v>
       </c>
       <c r="F22">
-        <v>1.033644515902177</v>
+        <v>1.032982225342209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054325844457379</v>
+        <v>1.053842657861916</v>
       </c>
       <c r="J22">
-        <v>1.036090372232126</v>
+        <v>1.0357601833722</v>
       </c>
       <c r="K22">
-        <v>1.044857857907682</v>
+        <v>1.043848113857396</v>
       </c>
       <c r="L22">
-        <v>1.031518576814169</v>
+        <v>1.031184161301181</v>
       </c>
       <c r="M22">
-        <v>1.048577688496811</v>
+        <v>1.047927440529694</v>
       </c>
       <c r="N22">
-        <v>1.01435354438126</v>
+        <v>1.016694965473063</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047018343485973</v>
+        <v>1.04650372023749</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042856451710596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042157906905989</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02371636698622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007457612562807</v>
+        <v>1.006897228408629</v>
       </c>
       <c r="D23">
-        <v>1.031115956715261</v>
+        <v>1.029888053589608</v>
       </c>
       <c r="E23">
-        <v>1.017902626428373</v>
+        <v>1.017348773256008</v>
       </c>
       <c r="F23">
-        <v>1.034889214751514</v>
+        <v>1.034072259550668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054971481849598</v>
+        <v>1.054358744393427</v>
       </c>
       <c r="J23">
-        <v>1.037222890105698</v>
+        <v>1.03668599814726</v>
       </c>
       <c r="K23">
-        <v>1.045796072921819</v>
+        <v>1.044590139230181</v>
       </c>
       <c r="L23">
-        <v>1.032822781863121</v>
+        <v>1.03227916774546</v>
       </c>
       <c r="M23">
-        <v>1.049502243636072</v>
+        <v>1.048699759762486</v>
       </c>
       <c r="N23">
-        <v>1.014773022555861</v>
+        <v>1.016762953468874</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047750059987371</v>
+        <v>1.04711495383839</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043510272997775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04267207253987</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023876152225433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014664648576613</v>
+        <v>1.01336301803508</v>
       </c>
       <c r="D24">
-        <v>1.036013281423389</v>
+        <v>1.034086090187637</v>
       </c>
       <c r="E24">
-        <v>1.024262263843635</v>
+        <v>1.022973140167757</v>
       </c>
       <c r="F24">
-        <v>1.039725286333498</v>
+        <v>1.03836874418328</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05745938503117</v>
+        <v>1.056393912810519</v>
       </c>
       <c r="J24">
-        <v>1.041609651064477</v>
+        <v>1.040356198936445</v>
       </c>
       <c r="K24">
-        <v>1.049436162356306</v>
+        <v>1.047539938002176</v>
       </c>
       <c r="L24">
-        <v>1.037876294987347</v>
+        <v>1.036608485165744</v>
       </c>
       <c r="M24">
-        <v>1.053088935733628</v>
+        <v>1.051753976658289</v>
       </c>
       <c r="N24">
-        <v>1.016408099543238</v>
+        <v>1.01726285220698</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050588652697313</v>
+        <v>1.04953213586821</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046076520458808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044749499523888</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024535327563148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022710963870403</v>
+        <v>1.02082920883687</v>
       </c>
       <c r="D25">
-        <v>1.041504498054342</v>
+        <v>1.038983321477698</v>
       </c>
       <c r="E25">
-        <v>1.031389922108535</v>
+        <v>1.02952220797046</v>
       </c>
       <c r="F25">
-        <v>1.045162887634825</v>
+        <v>1.043358292161206</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060198732181862</v>
+        <v>1.058758248507529</v>
       </c>
       <c r="J25">
-        <v>1.046497462689061</v>
+        <v>1.044675360466329</v>
       </c>
       <c r="K25">
-        <v>1.053490949562211</v>
+        <v>1.051005177918776</v>
       </c>
       <c r="L25">
-        <v>1.043519736762506</v>
+        <v>1.041678885747007</v>
       </c>
       <c r="M25">
-        <v>1.057098347487442</v>
+        <v>1.055318848569314</v>
       </c>
       <c r="N25">
-        <v>1.018227121209326</v>
+        <v>1.018446096240638</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.053761782959433</v>
+        <v>1.052353452862618</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048940559255733</v>
+        <v>1.047196396758239</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025344692181034</v>
       </c>
     </row>
   </sheetData>
